--- a/Breakdown/Excel/Arm Info.xlsx
+++ b/Breakdown/Excel/Arm Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\7. TUGAS AKHIR\Arm Manipulator\Breakdown\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556C7B2-D1E0-4D6C-B669-E9255DAD21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929BD43-7777-446B-A63F-ED82E2FA6A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
   </bookViews>
@@ -1057,18 +1057,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,57 +1120,45 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,49 +1171,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,8 +1666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31641347" y="770955"/>
-          <a:ext cx="3068247" cy="3063538"/>
+          <a:off x="31812549" y="765017"/>
+          <a:ext cx="3073195" cy="2991297"/>
           <a:chOff x="31835369" y="765832"/>
           <a:chExt cx="3074010" cy="2975812"/>
         </a:xfrm>
@@ -1796,8 +1796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31669700" y="4180450"/>
-          <a:ext cx="4559083" cy="3014995"/>
+          <a:off x="31840902" y="4092375"/>
+          <a:ext cx="4564031" cy="2935826"/>
           <a:chOff x="31863722" y="4076075"/>
           <a:chExt cx="4564846" cy="2922787"/>
         </a:xfrm>
@@ -2916,24 +2916,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="29"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2980,10 +2980,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2992,20 +2992,20 @@
       <c r="D3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="41">
         <v>20</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="41">
         <v>3</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="41">
         <v>6</v>
       </c>
       <c r="H3" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="48" t="s">
         <v>168</v>
       </c>
       <c r="K3" s="3">
@@ -3027,22 +3027,22 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="30" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I4" s="60"/>
+      <c r="I4" s="49"/>
       <c r="K4" s="3">
         <v>2</v>
       </c>
@@ -3062,22 +3062,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="49"/>
       <c r="K5" s="3">
         <v>3</v>
       </c>
@@ -3097,22 +3097,22 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="50"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
@@ -3132,10 +3132,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50">
+      <c r="A7" s="41">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="52" t="s">
         <v>146</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -3144,16 +3144,16 @@
       <c r="D7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="50">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="48" t="s">
         <v>168</v>
       </c>
       <c r="K7" s="3">
@@ -3175,22 +3175,22 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="51"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="50"/>
       <c r="K8" s="3">
         <v>6</v>
       </c>
@@ -3210,104 +3210,104 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
+      <c r="A9" s="41">
         <v>3</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="50">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41">
         <v>6</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="41">
         <f>F3*G9</f>
         <v>18</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
       <c r="O9" s="28">
         <f>SUM(M3:M7)</f>
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="46"/>
-      <c r="K10" s="52" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="60"/>
+      <c r="K10" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
       <c r="O10" s="28">
         <f>SUM(O3:O7)</f>
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>4</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="50">
-        <v>1</v>
-      </c>
-      <c r="H11" s="50">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+      <c r="H11" s="41">
         <f>G11*F3</f>
         <v>3</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="59" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="46"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="51" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="33" t="s">
@@ -3316,8 +3316,8 @@
       <c r="D13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="3">
         <v>1</v>
       </c>
@@ -3325,21 +3325,21 @@
         <f>G13*F3</f>
         <v>3</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="48" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="3">
         <v>2</v>
       </c>
@@ -3347,13 +3347,13 @@
         <f>G14*F3</f>
         <v>6</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>6</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="51" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -3362,80 +3362,80 @@
       <c r="D15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="50">
+      <c r="E15" s="42"/>
+      <c r="F15" s="41">
         <v>6</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="41">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>G15*F15</f>
         <v>6</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="57" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I18" s="42"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -3444,44 +3444,44 @@
       <c r="D19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="50">
+      <c r="E19" s="42"/>
+      <c r="F19" s="41">
         <v>6</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="41">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f>F19*G19</f>
         <v>6</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="57" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="3">
         <f>G19*F19</f>
         <v>6</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>8</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -3490,41 +3490,71 @@
       <c r="D21" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="50">
+      <c r="E21" s="42"/>
+      <c r="F21" s="41">
         <v>2</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="41">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f>G21*F21</f>
         <v>2</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="57" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="3">
         <f>G21*F21</f>
         <v>2</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="A15:A18"/>
@@ -3541,36 +3571,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3584,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF990D27-4B97-4251-AD4B-2BBC3FAFA5B8}">
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -3599,195 +3599,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
       <c r="V1" s="27"/>
-      <c r="W1" s="74" t="s">
+      <c r="W1" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
     </row>
     <row r="2" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
     </row>
     <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="I3" s="64" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="O3" s="64" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
       <c r="V3" s="24"/>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="AA3" s="64" t="s">
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="AA3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
     </row>
     <row r="4" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="72" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="73"/>
-      <c r="I4" s="75" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="I4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="72" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="24"/>
-      <c r="W4" s="70" t="s">
+      <c r="W4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="67" t="s">
+      <c r="X4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="67" t="s">
+      <c r="Y4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="67" t="s">
+      <c r="AA4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="72" t="s">
+      <c r="AB4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="73"/>
+      <c r="AC4" s="81"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
@@ -3806,19 +3806,19 @@
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="AA5" s="68"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="AA5" s="78"/>
       <c r="AB5" s="10" t="s">
         <v>30</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="9">
@@ -3873,7 +3873,7 @@
         <f>N48</f>
         <v>598.5</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="V6" s="24"/>
@@ -3881,10 +3881,10 @@
         <v>43</v>
       </c>
       <c r="X6" s="6">
-        <f>P6</f>
+        <f t="shared" ref="X6:X11" si="0">P6</f>
         <v>598.5</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="Y6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -3919,7 +3919,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="42"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
@@ -3944,16 +3944,16 @@
         <f>N49</f>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Q7" s="55"/>
+      <c r="Q7" s="42"/>
       <c r="V7" s="24"/>
       <c r="W7" s="21" t="s">
         <v>44</v>
       </c>
       <c r="X7" s="6">
-        <f>P7</f>
+        <f t="shared" si="0"/>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Y7" s="55"/>
+      <c r="Y7" s="42"/>
       <c r="AA7" s="8" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="43"/>
       <c r="I8" s="9">
         <v>3</v>
       </c>
@@ -4011,16 +4011,16 @@
         <f>N50</f>
         <v>776</v>
       </c>
-      <c r="Q8" s="51"/>
+      <c r="Q8" s="43"/>
       <c r="V8" s="24"/>
       <c r="W8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="X8" s="6">
-        <f>P8</f>
+        <f t="shared" si="0"/>
         <v>776</v>
       </c>
-      <c r="Y8" s="51"/>
+      <c r="Y8" s="43"/>
       <c r="AA8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:D11" si="0">RADIANS(C9)</f>
+        <f t="shared" ref="D9:D11" si="1">RADIANS(C9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -4090,7 +4090,7 @@
         <v>47</v>
       </c>
       <c r="X9" s="6">
-        <f>P9</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="Y9" s="6">
@@ -4166,11 +4166,11 @@
         <v>48</v>
       </c>
       <c r="X10" s="6">
-        <f>P10</f>
+        <f t="shared" si="0"/>
         <v>7.0195835743237771E-15</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" ref="Y10:Y11" si="1">RADIANS(X10)</f>
+        <f t="shared" ref="Y10:Y11" si="2">RADIANS(X10)</f>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -4242,11 +4242,11 @@
         <v>46</v>
       </c>
       <c r="X11" s="6">
-        <f>P11</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -4270,31 +4270,31 @@
       <c r="V13" s="24"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="G14" s="62" t="s">
+      <c r="C14" s="64"/>
+      <c r="G14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="L14" s="62" t="s">
+      <c r="H14" s="64"/>
+      <c r="L14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="62"/>
+      <c r="M14" s="64"/>
       <c r="V14" s="24"/>
-      <c r="X14" s="62" t="s">
+      <c r="X14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="62"/>
-      <c r="AC14" s="62" t="s">
+      <c r="Y14" s="64"/>
+      <c r="AC14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" s="62"/>
-      <c r="AH14" s="62" t="s">
+      <c r="AD14" s="64"/>
+      <c r="AH14" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="AI14" s="62"/>
+      <c r="AI14" s="64"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -4399,19 +4399,19 @@
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="6">
-        <f t="shared" ref="AB16:AE19" si="2">F32</f>
+        <f t="shared" ref="AB16:AE19" si="3">F32</f>
         <v>1</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="18"/>
@@ -4496,19 +4496,19 @@
       </c>
       <c r="AA17" s="18"/>
       <c r="AB17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF17" s="18"/>
@@ -4591,19 +4591,19 @@
       </c>
       <c r="AA18" s="18"/>
       <c r="AB18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF18" s="18"/>
@@ -4676,19 +4676,19 @@
       </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF19" s="18"/>
@@ -4713,31 +4713,31 @@
       <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="G22" s="62" t="s">
+      <c r="C22" s="64"/>
+      <c r="G22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="L22" s="62" t="s">
+      <c r="H22" s="64"/>
+      <c r="L22" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="62"/>
+      <c r="M22" s="64"/>
       <c r="V22" s="24"/>
-      <c r="X22" s="62" t="s">
+      <c r="X22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="62"/>
-      <c r="AC22" s="62" t="s">
+      <c r="Y22" s="64"/>
+      <c r="AC22" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="AD22" s="62"/>
-      <c r="AH22" s="62" t="s">
+      <c r="AD22" s="64"/>
+      <c r="AH22" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AI22" s="62"/>
+      <c r="AI22" s="64"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
@@ -5127,31 +5127,31 @@
       <c r="V29" s="24"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="G30" s="62" t="s">
+      <c r="C30" s="64"/>
+      <c r="G30" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="L30" s="62" t="s">
+      <c r="H30" s="64"/>
+      <c r="L30" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="62"/>
+      <c r="M30" s="64"/>
       <c r="V30" s="24"/>
-      <c r="X30" s="62" t="s">
+      <c r="X30" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="62"/>
-      <c r="AC30" s="62" t="s">
+      <c r="Y30" s="64"/>
+      <c r="AC30" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AD30" s="62"/>
-      <c r="AH30" s="62" t="s">
+      <c r="AD30" s="64"/>
+      <c r="AH30" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="62"/>
+      <c r="AI30" s="64"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
@@ -5173,14 +5173,14 @@
       <c r="M31" s="63"/>
       <c r="N31" s="63"/>
       <c r="V31" s="24"/>
-      <c r="X31" s="62" t="s">
+      <c r="X31" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="Y31" s="62"/>
-      <c r="AC31" s="62" t="s">
+      <c r="Y31" s="64"/>
+      <c r="AC31" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="62"/>
+      <c r="AD31" s="64"/>
       <c r="AG31" s="63" t="s">
         <v>33</v>
       </c>
@@ -5442,10 +5442,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="24"/>
-      <c r="X35" s="62" t="s">
+      <c r="X35" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" s="62"/>
+      <c r="Y35" s="64"/>
       <c r="AC35" s="8" t="s">
         <v>89</v>
       </c>
@@ -5497,18 +5497,18 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="G38" s="62" t="s">
+      <c r="C38" s="64"/>
+      <c r="G38" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="L38" s="62" t="s">
+      <c r="H38" s="64"/>
+      <c r="L38" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="62"/>
+      <c r="M38" s="64"/>
       <c r="V38" s="24"/>
       <c r="X38" s="6">
         <f>(AJ24*COS(-Y32))-AJ25*SIN(-Y32)</f>
@@ -5627,18 +5627,18 @@
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="V41" s="24"/>
-      <c r="X41" s="62" t="s">
+      <c r="X41" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" s="62"/>
-      <c r="AC41" s="62" t="s">
+      <c r="Y41" s="64"/>
+      <c r="AC41" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="AD41" s="62"/>
-      <c r="AH41" s="62" t="s">
+      <c r="AD41" s="64"/>
+      <c r="AH41" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="AI41" s="62"/>
+      <c r="AI41" s="64"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -5880,18 +5880,18 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="G46" s="62" t="s">
+      <c r="C46" s="64"/>
+      <c r="G46" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="62"/>
-      <c r="L46" s="62" t="s">
+      <c r="H46" s="64"/>
+      <c r="L46" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="62"/>
+      <c r="M46" s="64"/>
       <c r="V46" s="24"/>
       <c r="W46" s="22">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>3.369158250998705E-15</v>
       </c>
       <c r="V49" s="24"/>
-      <c r="X49" s="62" t="s">
+      <c r="X49" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="Y49" s="62"/>
-      <c r="AB49" s="62" t="s">
+      <c r="Y49" s="64"/>
+      <c r="AB49" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AG49" s="62" t="s">
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="64"/>
+      <c r="AE49" s="64"/>
+      <c r="AG49" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
+      <c r="AH49" s="64"/>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="64"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -6323,161 +6323,161 @@
       <c r="AE55" s="19"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
-      <c r="T56" s="81"/>
-      <c r="U56" s="81"/>
-      <c r="V56" s="81"/>
-      <c r="W56" s="81"/>
-      <c r="X56" s="81"/>
-      <c r="Y56" s="81"/>
-      <c r="Z56" s="81"/>
-      <c r="AA56" s="81"/>
-      <c r="AB56" s="81"/>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="81"/>
-      <c r="AE56" s="81"/>
-      <c r="AF56" s="81"/>
-      <c r="AG56" s="81"/>
-      <c r="AH56" s="81"/>
-      <c r="AI56" s="81"/>
-      <c r="AJ56" s="81"/>
-      <c r="AK56" s="81"/>
-      <c r="AL56" s="81"/>
-      <c r="AM56" s="81"/>
-      <c r="AN56" s="81"/>
-      <c r="AO56" s="81"/>
-      <c r="AP56" s="81"/>
-      <c r="AQ56" s="81"/>
-      <c r="AR56" s="81"/>
-      <c r="AS56" s="81"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+      <c r="AC56" s="73"/>
+      <c r="AD56" s="73"/>
+      <c r="AE56" s="73"/>
+      <c r="AF56" s="73"/>
+      <c r="AG56" s="73"/>
+      <c r="AH56" s="73"/>
+      <c r="AI56" s="73"/>
+      <c r="AJ56" s="73"/>
+      <c r="AK56" s="73"/>
+      <c r="AL56" s="73"/>
+      <c r="AM56" s="73"/>
+      <c r="AN56" s="73"/>
+      <c r="AO56" s="73"/>
+      <c r="AP56" s="73"/>
+      <c r="AQ56" s="73"/>
+      <c r="AR56" s="73"/>
+      <c r="AS56" s="73"/>
     </row>
     <row r="57" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-      <c r="T57" s="74"/>
-      <c r="U57" s="74"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
       <c r="V57" s="24"/>
-      <c r="W57" s="74" t="s">
+      <c r="W57" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="X57" s="74"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="74"/>
-      <c r="AF57" s="74"/>
-      <c r="AG57" s="74"/>
-      <c r="AH57" s="74"/>
-      <c r="AI57" s="74"/>
-      <c r="AJ57" s="74"/>
-      <c r="AK57" s="74"/>
-      <c r="AL57" s="74"/>
-      <c r="AM57" s="74"/>
-      <c r="AN57" s="74"/>
-      <c r="AO57" s="74"/>
-      <c r="AP57" s="74"/>
-      <c r="AQ57" s="74"/>
-      <c r="AR57" s="74"/>
-      <c r="AS57" s="74"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="69"/>
+      <c r="AH57" s="69"/>
+      <c r="AI57" s="69"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="69"/>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="69"/>
+      <c r="AN57" s="69"/>
+      <c r="AO57" s="69"/>
+      <c r="AP57" s="69"/>
+      <c r="AQ57" s="69"/>
+      <c r="AR57" s="69"/>
+      <c r="AS57" s="69"/>
     </row>
     <row r="58" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
       <c r="V58" s="24"/>
       <c r="AA58" s="16"/>
       <c r="AB58" s="16"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="F59" s="56" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="F59" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="K59" s="82" t="s">
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="K59" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
       <c r="V59" s="24"/>
     </row>
     <row r="60" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="65" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" ref="B60:B62" si="3">M32</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="77" t="s">
+        <f t="shared" ref="B60:B62" si="4">M32</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="65" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="6">
@@ -6523,17 +6523,17 @@
       <c r="V60" s="24"/>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C61" s="78"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="66"/>
       <c r="D61" s="6">
         <f>M41</f>
         <v>1</v>
       </c>
-      <c r="F61" s="77" t="s">
+      <c r="F61" s="65" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6">
@@ -6545,7 +6545,7 @@
         <v>585</v>
       </c>
       <c r="I61" s="26">
-        <f t="shared" ref="I61:I69" si="4">B60</f>
+        <f t="shared" ref="I61:I69" si="5">B60</f>
         <v>0</v>
       </c>
       <c r="K61" s="6">
@@ -6574,17 +6574,17 @@
       <c r="V61" s="24"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A62" s="79"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="6">
         <f>M42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="F62" s="78"/>
+      <c r="F62" s="66"/>
       <c r="G62" s="6">
         <f>N49-B73</f>
         <v>3.369158250998705E-15</v>
@@ -6594,7 +6594,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K62" s="6">
@@ -6624,21 +6624,21 @@
       <c r="V62" s="24"/>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="65" t="s">
         <v>111</v>
       </c>
       <c r="B63" s="6">
         <f>C40</f>
         <v>0</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="6">
         <f>C48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F63" s="79"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="6">
         <f>N50-B74</f>
         <v>585</v>
@@ -6648,7 +6648,7 @@
         <v>-575</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K63" s="6">
@@ -6678,17 +6678,17 @@
       <c r="V63" s="24"/>
     </row>
     <row r="64" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="6">
         <f>C41</f>
         <v>1</v>
       </c>
-      <c r="C64" s="78"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="6">
         <f>C49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F64" s="77" t="s">
+      <c r="F64" s="65" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="6">
@@ -6700,7 +6700,7 @@
         <v>-65</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
@@ -6730,17 +6730,17 @@
       <c r="V64" s="24"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="79"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="6">
         <f>C42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="6">
         <f>C50</f>
         <v>-1</v>
       </c>
-      <c r="F65" s="78"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="6">
         <f>N49-B76</f>
         <v>4.3186483035528855E-14</v>
@@ -6750,7 +6750,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K65" s="6">
@@ -6780,21 +6780,21 @@
       <c r="V65" s="24"/>
     </row>
     <row r="66" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="65" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="6">
         <f>H40</f>
         <v>1</v>
       </c>
-      <c r="C66" s="77" t="s">
+      <c r="C66" s="65" t="s">
         <v>119</v>
       </c>
       <c r="D66" s="6">
         <f>H48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F66" s="79"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="6">
         <f>N50-B77</f>
         <v>-65</v>
@@ -6804,23 +6804,23 @@
         <v>-575</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V66" s="24"/>
     </row>
     <row r="67" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="6">
         <f>H41</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C67" s="78"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="6">
         <f>H49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F67" s="77" t="s">
+      <c r="F67" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="6">
@@ -6832,23 +6832,23 @@
         <v>-3.9817324784530174E-15</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V67" s="24"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="79"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="6">
         <f>H42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="6">
         <f>H50</f>
         <v>-1</v>
       </c>
-      <c r="F68" s="78"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="6">
         <f>N49-B79</f>
         <v>4.3186483035528855E-14</v>
@@ -6858,17 +6858,17 @@
         <v>65.000000000000028</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M68" s="82" t="s">
+      <c r="M68" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="N68" s="82"/>
+      <c r="N68" s="62"/>
       <c r="V68" s="24"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F69" s="79"/>
+      <c r="F69" s="67"/>
       <c r="G69" s="6">
         <f>N50-B80</f>
         <v>-65</v>
@@ -6878,7 +6878,7 @@
         <v>7.9634649569060301E-15</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="M69" s="28" t="str">
@@ -6892,7 +6892,7 @@
       <c r="V69" s="24"/>
     </row>
     <row r="70" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="77" t="s">
+      <c r="F70" s="65" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="6">
@@ -6904,19 +6904,19 @@
         <v>-65</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" ref="I70:I78" si="5">D60</f>
+        <f t="shared" ref="I70:I78" si="6">D60</f>
         <v>0</v>
       </c>
       <c r="V70" s="24"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="F71" s="78"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="6">
         <f>N49-D73</f>
         <v>7.9634649569060301E-15</v>
@@ -6926,27 +6926,27 @@
         <v>0</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V71" s="24"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="65" t="s">
         <v>110</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" ref="B72:B74" si="6">N32</f>
+        <f t="shared" ref="B72:B74" si="7">N32</f>
         <v>23.5</v>
       </c>
-      <c r="C72" s="77" t="s">
+      <c r="C72" s="65" t="s">
         <v>113</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" ref="D72:D74" si="7">N40</f>
+        <f t="shared" ref="D72:D74" si="8">N40</f>
         <v>598.5</v>
       </c>
-      <c r="F72" s="79"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="6">
         <f>N50-D74</f>
         <v>-65</v>
@@ -6956,23 +6956,23 @@
         <v>0</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V72" s="24"/>
     </row>
     <row r="73" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="78"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="66"/>
       <c r="D73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F73" s="77" t="s">
+      <c r="F73" s="65" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="6">
@@ -6984,23 +6984,23 @@
         <v>0</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="V73" s="24"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="79"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="C74" s="79"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
-      <c r="F74" s="78"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="6">
         <f>N49-D76</f>
         <v>7.9634649569060301E-15</v>
@@ -7010,28 +7010,28 @@
         <v>7.9634649569060301E-15</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="O74"/>
       <c r="V74" s="24"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="65" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" ref="B75:B77" si="8">D40</f>
+        <f t="shared" ref="B75:B77" si="9">D40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" ref="D75:D77" si="9">D48</f>
+        <f t="shared" ref="D75:D77" si="10">D48</f>
         <v>598.5</v>
       </c>
-      <c r="F75" s="79"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="6">
         <f>N50-D77</f>
         <v>-65</v>
@@ -7041,23 +7041,23 @@
         <v>9.756426787672363E-31</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="V75" s="24"/>
     </row>
     <row r="76" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C76" s="78"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F76" s="77" t="s">
+      <c r="F76" s="65" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="6">
@@ -7069,24 +7069,24 @@
         <v>0</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="24"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="79"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="6">
-        <f t="shared" si="8"/>
-        <v>841</v>
-      </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="6">
         <f t="shared" si="9"/>
         <v>841</v>
       </c>
-      <c r="F77" s="78"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="6">
+        <f t="shared" si="10"/>
+        <v>841</v>
+      </c>
+      <c r="F77" s="66"/>
       <c r="G77" s="6">
         <f>N49-D79</f>
         <v>0</v>
@@ -7096,27 +7096,27 @@
         <v>0</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="V77" s="24"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="77" t="s">
+      <c r="A78" s="65" t="s">
         <v>112</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" ref="B78:B80" si="10">I40</f>
+        <f t="shared" ref="B78:B80" si="11">I40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C78" s="77" t="s">
+      <c r="C78" s="65" t="s">
         <v>119</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" ref="D78:D80" si="11">I48</f>
+        <f t="shared" ref="D78:D80" si="12">I48</f>
         <v>598.5</v>
       </c>
-      <c r="F78" s="79"/>
+      <c r="F78" s="67"/>
       <c r="G78" s="6">
         <f>N50-D80</f>
         <v>0</v>
@@ -7126,33 +7126,33 @@
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="V78" s="24"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="78"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C79" s="78"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="6">
+        <f t="shared" si="12"/>
+        <v>3.369158250998705E-15</v>
+      </c>
+      <c r="V79" s="24"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="6">
         <f t="shared" si="11"/>
-        <v>3.369158250998705E-15</v>
-      </c>
-      <c r="V79" s="24"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="79"/>
-      <c r="B80" s="6">
-        <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="C80" s="79"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>776</v>
       </c>
       <c r="V80" s="24"/>
@@ -7168,6 +7168,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="W1:AS1"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="W2:AS2"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="W57:AS57"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A56:AS56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="L46:M46"/>
@@ -7192,99 +7285,6 @@
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="W2:AS2"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="W57:AS57"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A56:AS56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="W1:AS1"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="X14:Y14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Breakdown/Excel/Arm Info.xlsx
+++ b/Breakdown/Excel/Arm Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\7. TUGAS AKHIR\Arm Manipulator\Breakdown\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929BD43-7777-446B-A63F-ED82E2FA6A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C9AA5-E8F1-4A4D-A717-1C84B02964AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="181">
   <si>
     <t>No</t>
   </si>
@@ -367,12 +367,6 @@
     <t>(-155 / 155)</t>
   </si>
   <si>
-    <t>(-105 / 105)</t>
-  </si>
-  <si>
-    <t>(-165 / 165)</t>
-  </si>
-  <si>
     <t>SINGULARITY AVOIDANCE</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
 Time (s)</t>
   </si>
   <si>
-    <t>ANGLE AND POSITION LIMITATION</t>
-  </si>
-  <si>
     <t>(-60 / 90)</t>
   </si>
   <si>
@@ -623,6 +614,47 @@
   <si>
     <t>ON
 PROGRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(-145 / 145)</t>
+  </si>
+  <si>
+    <t>(-90 / 105)</t>
+  </si>
+  <si>
+    <t>Maximum
+Angle Limit</t>
+  </si>
+  <si>
+    <t>Minimum
+Angle Limit</t>
+  </si>
+  <si>
+    <t>LIMIT STATUS</t>
+  </si>
+  <si>
+    <t>JOINT ANGLE DIRECTION</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>JOINT INFORMATION</t>
+  </si>
+  <si>
+    <t>JOINT ANGLE LIMIT</t>
   </si>
 </sst>
 </file>
@@ -935,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,9 +1014,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,133 +1086,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,6 +1240,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>581893</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>221674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1856E8E-3886-DB3E-E06F-9ED88BDF0626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31810038" y="872835"/>
+          <a:ext cx="2964872" cy="2974889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -1232,7 +1316,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,7 +1365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1308,13 +1392,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>329292</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>52942</xdr:rowOff>
+      <xdr:rowOff>52941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>723422</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:colOff>817418</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,15 +1414,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13473792" y="4682092"/>
-          <a:ext cx="3899330" cy="1261507"/>
+          <a:off x="13629656" y="4472541"/>
+          <a:ext cx="4034889" cy="1231665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,7 +1463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect r="4612"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1427,7 +1511,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1476,7 +1560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1520,7 +1604,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1569,7 +1653,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1618,7 +1702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1643,261 +1727,77 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>584404</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>183126</xdr:rowOff>
+      <xdr:colOff>723903</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>332508</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>577090</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62362</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06599109-9C07-ACD4-0811-B15B8C6A412C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD23277-3FD3-8B8A-5064-6D7D2A6C586C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="31812549" y="765017"/>
-          <a:ext cx="3073195" cy="2991297"/>
-          <a:chOff x="31835369" y="765832"/>
-          <a:chExt cx="3074010" cy="2975812"/>
+          <a:off x="31952048" y="1161158"/>
+          <a:ext cx="739878" cy="439059"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Picture 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E16DB6E-25D2-266F-4120-4613A305C0B7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="31835369" y="765832"/>
-            <a:ext cx="3074010" cy="2975812"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="TextBox 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD23277-3FD3-8B8A-5064-6D7D2A6C586C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="34164494" y="1201271"/>
-            <a:ext cx="740074" cy="436786"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100"/>
-              <a:t>WIRST</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100" baseline="0"/>
-              <a:t>POSITION</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-ID" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>612757</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>32993</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>22897</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87074</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E31B88-3E71-AE83-DAAF-8EF9AC596D94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="31840902" y="4092375"/>
-          <a:ext cx="4564031" cy="2935826"/>
-          <a:chOff x="31863722" y="4076075"/>
-          <a:chExt cx="4564846" cy="2922787"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Picture 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2B2E09-8E62-9F21-FDED-CA57DDAD828B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="31863722" y="4076075"/>
-            <a:ext cx="4528094" cy="2922787"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2C6413-3FFA-4C92-ADEB-501DF0D74DD6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="35688494" y="5100918"/>
-            <a:ext cx="740074" cy="436786"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100"/>
-              <a:t>WIRST</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1100" baseline="0"/>
-              <a:t>POSITION</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-ID" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>WIRST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" baseline="0"/>
+            <a:t>POSITION</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1927,7 +1827,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1976,7 +1876,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2025,7 +1925,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2038,6 +1938,55 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>581894</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>401783</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE5AAB6-BCC7-CC33-CAD9-0FDBA4414449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31810039" y="4045527"/>
+          <a:ext cx="4973780" cy="3108613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2355,41 +2304,41 @@
     <col min="3" max="3" width="16.77734375" style="2" customWidth="1"/>
     <col min="4" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="2.77734375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="36" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="2" customWidth="1"/>
     <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="2.77734375" style="37" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="36" customWidth="1"/>
     <col min="15" max="15" width="4.77734375" style="2" customWidth="1"/>
     <col min="18" max="20" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="O1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="39"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2402,21 +2351,21 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2378,7 @@
       <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="37"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2449,10 +2398,10 @@
         <v>20</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2916,103 +2865,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="A1" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>132</v>
+      <c r="B3" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="41">
+        <v>135</v>
+      </c>
+      <c r="E3" s="49">
         <v>20</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="49">
         <v>3</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="49">
         <v>6</v>
       </c>
       <c r="H3" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>168</v>
+      <c r="I3" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3">
         <f>SUM(H3,H13,H15,H19)</f>
@@ -3029,25 +2978,25 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="30" t="s">
-        <v>133</v>
+      <c r="C4" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+        <v>136</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I4" s="49"/>
+      <c r="I4" s="59"/>
       <c r="K4" s="3">
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M4" s="3">
         <f>SUM(H14,H16,H20,H22)</f>
@@ -3064,25 +3013,25 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="31" t="s">
-        <v>134</v>
+      <c r="C5" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+        <v>137</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="59"/>
       <c r="K5" s="3">
         <v>3</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M5" s="3">
         <f>SUM(H4,H9)</f>
@@ -3099,25 +3048,25 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
-      <c r="C6" s="32" t="s">
-        <v>135</v>
+      <c r="C6" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+        <v>138</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="43"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M6" s="3">
         <f>SUM(H5,H7,H17)</f>
@@ -3132,35 +3081,35 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>134</v>
+      <c r="B7" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41">
+        <v>153</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="49">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>168</v>
+      <c r="I7" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="K7" s="3">
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M7" s="3">
         <f>SUM(H6,H8,H18)</f>
@@ -3175,27 +3124,27 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="32" t="s">
-        <v>135</v>
+      <c r="A8" s="50"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+        <v>152</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="43"/>
       <c r="K8" s="3">
         <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M8" s="3">
         <f>H11+H21</f>
@@ -3210,58 +3159,58 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="41">
+      <c r="B9" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="49">
         <v>6</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="49">
         <f>F3*G9</f>
         <v>18</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="28">
+      <c r="I9" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="27">
         <f>SUM(M3:M7)</f>
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="60"/>
-      <c r="K10" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="28">
+      <c r="C10" s="57"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="27">
         <f>SUM(O3:O7)</f>
         <v>46</v>
       </c>
@@ -3270,54 +3219,54 @@
       <c r="A11" s="47">
         <v>4</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>161</v>
+      <c r="B11" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>158</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="41">
-        <v>1</v>
-      </c>
-      <c r="H11" s="41">
+        <v>159</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="49">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49">
         <f>G11*F3</f>
         <v>3</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>170</v>
+      <c r="I11" s="44" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="60"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>132</v>
+      <c r="B13" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+        <v>163</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="3">
         <v>1</v>
       </c>
@@ -3325,21 +3274,21 @@
         <f>G13*F3</f>
         <v>3</v>
       </c>
-      <c r="I13" s="48" t="s">
-        <v>168</v>
+      <c r="I13" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="34" t="s">
-        <v>143</v>
+      <c r="C14" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="3">
         <v>2</v>
       </c>
@@ -3347,198 +3296,200 @@
         <f>G14*F3</f>
         <v>6</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="47">
         <v>6</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>132</v>
+      <c r="B15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="41">
+        <v>163</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="49">
         <v>6</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="49">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>G15*F15</f>
         <v>6</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>169</v>
+      <c r="I15" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="34" t="s">
-        <v>143</v>
+      <c r="B16" s="48"/>
+      <c r="C16" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+        <v>151</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="31" t="s">
-        <v>134</v>
+      <c r="B17" s="48"/>
+      <c r="C17" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+        <v>153</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="32" t="s">
-        <v>135</v>
+      <c r="B18" s="48"/>
+      <c r="C18" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="3">
         <f>F15*G15</f>
         <v>6</v>
       </c>
-      <c r="I18" s="58"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>7</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>132</v>
+      <c r="B19" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="41">
+        <v>163</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="49">
         <v>6</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="49">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f>F19*G19</f>
         <v>6</v>
       </c>
-      <c r="I19" s="57" t="s">
-        <v>169</v>
+      <c r="I19" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="34" t="s">
-        <v>143</v>
+      <c r="C20" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="3">
         <f>G19*F19</f>
         <v>6</v>
       </c>
-      <c r="I20" s="58"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41">
+      <c r="E21" s="54"/>
+      <c r="F21" s="49">
         <v>2</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="49">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f>G21*F21</f>
         <v>2</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>169</v>
+      <c r="I21" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="34" t="s">
-        <v>143</v>
+      <c r="C22" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="3">
         <f>G21*F21</f>
         <v>2</v>
       </c>
-      <c r="I22" s="58"/>
+      <c r="I22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E3:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B9:B10"/>
@@ -3555,22 +3506,20 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E3:E22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3584,14 +3533,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF990D27-4B97-4251-AD4B-2BBC3FAFA5B8}">
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="R56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z78" sqref="Z78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="21" width="12.88671875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="2.77734375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="2.77734375" style="22" customWidth="1"/>
     <col min="23" max="37" width="12.88671875" style="2" customWidth="1"/>
     <col min="38" max="45" width="8.88671875" style="2" customWidth="1"/>
     <col min="46" max="46" width="0" style="2" hidden="1" customWidth="1"/>
@@ -3599,195 +3548,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="69" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
     </row>
     <row r="2" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
     </row>
     <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="I3" s="71" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="I3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="71" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="O3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="71" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="AA3" s="71" t="s">
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="AA3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
     </row>
     <row r="4" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="79" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="72"/>
       <c r="I4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="W4" s="82" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="77" t="s">
+      <c r="AA4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="79" t="s">
+      <c r="AB4" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="81"/>
+      <c r="AC4" s="72"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
@@ -3807,18 +3756,18 @@
         <v>27</v>
       </c>
       <c r="I5" s="74"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="AA5" s="78"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="AA5" s="67"/>
       <c r="AB5" s="10" t="s">
         <v>30</v>
       </c>
@@ -3846,7 +3795,7 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="49" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="9">
@@ -3873,18 +3822,18 @@
         <f>N48</f>
         <v>598.5</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="21" t="s">
+      <c r="V6" s="23"/>
+      <c r="W6" s="20" t="s">
         <v>43</v>
       </c>
       <c r="X6" s="6">
         <f t="shared" ref="X6:X11" si="0">P6</f>
         <v>598.5</v>
       </c>
-      <c r="Y6" s="41" t="s">
+      <c r="Y6" s="49" t="s">
         <v>52</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -3904,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -3919,7 +3868,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="54"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
@@ -3944,16 +3893,16 @@
         <f>N49</f>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Q7" s="42"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="21" t="s">
+      <c r="Q7" s="54"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="X7" s="6">
         <f t="shared" si="0"/>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="54"/>
       <c r="AA7" s="8" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -3986,7 +3935,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="50"/>
       <c r="I8" s="9">
         <v>3</v>
       </c>
@@ -4011,16 +3960,16 @@
         <f>N50</f>
         <v>776</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="21" t="s">
+      <c r="Q8" s="50"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="0"/>
         <v>776</v>
       </c>
-      <c r="Y8" s="43"/>
+      <c r="Y8" s="50"/>
       <c r="AA8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -4085,7 +4034,7 @@
         <f>ATAN2(K48/COS(Q10),K49/COS(Q10))</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="V9" s="24"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="11" t="s">
         <v>47</v>
       </c>
@@ -4114,7 +4063,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C10" s="6">
         <v>90</v>
@@ -4161,7 +4110,7 @@
         <f>ATAN2(SQRT(L50^2 + M50^2), -K50)</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="V10" s="24"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="11" t="s">
         <v>48</v>
       </c>
@@ -4237,7 +4186,7 @@
         <f>ATAN2(M50/COS(Q10),L50/COS(Q10))</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="V11" s="24"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="11" t="s">
         <v>46</v>
       </c>
@@ -4262,78 +4211,78 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="V12" s="24"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="V13" s="24"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="G14" s="64" t="s">
+      <c r="B14" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="G14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="L14" s="64" t="s">
+      <c r="H14" s="61"/>
+      <c r="L14" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="64"/>
-      <c r="V14" s="24"/>
-      <c r="X14" s="64" t="s">
+      <c r="M14" s="61"/>
+      <c r="V14" s="23"/>
+      <c r="X14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="64"/>
-      <c r="AC14" s="64" t="s">
+      <c r="Y14" s="61"/>
+      <c r="AC14" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" s="64"/>
-      <c r="AH14" s="64" t="s">
+      <c r="AD14" s="61"/>
+      <c r="AH14" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AI14" s="64"/>
+      <c r="AI14" s="61"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="K15" s="63" t="s">
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="K15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="63" t="s">
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AB15" s="63" t="s">
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AB15" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AG15" s="63" t="s">
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AG15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -4380,8 +4329,8 @@
         <f>M7*COS(J7)</f>
         <v>3.981732478453015E-14</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="22">
+      <c r="V16" s="23"/>
+      <c r="W16" s="21">
         <f>COS(RADIANS(X9))*COS(RADIANS(X10))</f>
         <v>-1</v>
       </c>
@@ -4397,7 +4346,7 @@
         <f>X6</f>
         <v>598.5</v>
       </c>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="17"/>
       <c r="AB16" s="6">
         <f t="shared" ref="AB16:AE19" si="3">F32</f>
         <v>1</v>
@@ -4414,7 +4363,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="18"/>
+      <c r="AF16" s="17"/>
       <c r="AG16" s="6">
         <f>AB16</f>
         <v>1</v>
@@ -4477,8 +4426,8 @@
         <f>M7*SIN(J7)</f>
         <v>-650</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="22">
+      <c r="V17" s="23"/>
+      <c r="W17" s="21">
         <f>SIN(RADIANS(X9))*COS(RADIANS(X10))</f>
         <v>1.22514845490862E-16</v>
       </c>
@@ -4494,7 +4443,7 @@
         <f>X7</f>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="17"/>
       <c r="AB17" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4511,7 +4460,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="18"/>
+      <c r="AF17" s="17"/>
       <c r="AG17" s="6">
         <f>AC16</f>
         <v>0</v>
@@ -4572,8 +4521,8 @@
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="22">
+      <c r="V18" s="23"/>
+      <c r="W18" s="21">
         <f>-SIN(RADIANS(X10))</f>
         <v>-1.22514845490862E-16</v>
       </c>
@@ -4589,7 +4538,7 @@
         <f>X8</f>
         <v>776</v>
       </c>
-      <c r="AA18" s="18"/>
+      <c r="AA18" s="17"/>
       <c r="AB18" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4606,7 +4555,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="18"/>
+      <c r="AF18" s="17"/>
       <c r="AG18" s="6">
         <f>AD16</f>
         <v>0</v>
@@ -4661,8 +4610,8 @@
       <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="V19" s="24"/>
-      <c r="W19" s="22">
+      <c r="V19" s="23"/>
+      <c r="W19" s="21">
         <v>0</v>
       </c>
       <c r="X19" s="6">
@@ -4674,7 +4623,7 @@
       <c r="Z19" s="6">
         <v>1</v>
       </c>
-      <c r="AA19" s="18"/>
+      <c r="AA19" s="17"/>
       <c r="AB19" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4691,7 +4640,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AF19" s="18"/>
+      <c r="AF19" s="17"/>
       <c r="AG19" s="6">
         <v>0</v>
       </c>
@@ -4707,76 +4656,76 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V20" s="24"/>
+      <c r="V20" s="23"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V21" s="24"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="G22" s="64" t="s">
+      <c r="C22" s="61"/>
+      <c r="G22" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="L22" s="64" t="s">
+      <c r="H22" s="61"/>
+      <c r="L22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="64"/>
-      <c r="V22" s="24"/>
-      <c r="X22" s="64" t="s">
+      <c r="M22" s="61"/>
+      <c r="V22" s="23"/>
+      <c r="X22" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="64"/>
-      <c r="AC22" s="64" t="s">
+      <c r="Y22" s="61"/>
+      <c r="AC22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AD22" s="64"/>
-      <c r="AH22" s="64" t="s">
+      <c r="AD22" s="61"/>
+      <c r="AH22" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="AI22" s="64"/>
+      <c r="AI22" s="61"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="F23" s="63" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="F23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="K23" s="63" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="K23" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="63" t="s">
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AB23" s="63" t="s">
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AB23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AG23" s="63" t="s">
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AG23" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -4827,8 +4776,8 @@
         <f>M10*COS(J10)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="24"/>
-      <c r="W24" s="22">
+      <c r="V24" s="23"/>
+      <c r="W24" s="21">
         <f t="array" ref="W24:Z27">MMULT(W16:Z19,AG16:AJ19)</f>
         <v>-1</v>
       </c>
@@ -4841,7 +4790,7 @@
       <c r="Z24" s="6">
         <v>598.5</v>
       </c>
-      <c r="AA24" s="18"/>
+      <c r="AA24" s="17"/>
       <c r="AB24" s="6">
         <v>1</v>
       </c>
@@ -4854,7 +4803,7 @@
       <c r="AE24" s="6">
         <v>0</v>
       </c>
-      <c r="AF24" s="18"/>
+      <c r="AF24" s="17"/>
       <c r="AG24" s="6">
         <f t="array" ref="AG24:AJ27">MMULT(W24:Z27,AB24:AE27)</f>
         <v>-1</v>
@@ -4918,8 +4867,8 @@
         <f>M10*SIN(J10)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="24"/>
-      <c r="W25" s="22">
+      <c r="V25" s="23"/>
+      <c r="W25" s="21">
         <v>1.22514845490862E-16</v>
       </c>
       <c r="X25" s="6">
@@ -4931,7 +4880,7 @@
       <c r="Z25" s="6">
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="AA25" s="18"/>
+      <c r="AA25" s="17"/>
       <c r="AB25" s="6">
         <v>0</v>
       </c>
@@ -4944,7 +4893,7 @@
       <c r="AE25" s="6">
         <v>0</v>
       </c>
-      <c r="AF25" s="18"/>
+      <c r="AF25" s="17"/>
       <c r="AG25" s="6">
         <v>1.22514845490862E-16</v>
       </c>
@@ -5004,8 +4953,11 @@
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="22">
+      <c r="O26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V26" s="23"/>
+      <c r="W26" s="21">
         <v>-1.22514845490862E-16</v>
       </c>
       <c r="X26" s="6">
@@ -5017,7 +4969,7 @@
       <c r="Z26" s="6">
         <v>776</v>
       </c>
-      <c r="AA26" s="18"/>
+      <c r="AA26" s="17"/>
       <c r="AB26" s="6">
         <v>0</v>
       </c>
@@ -5031,7 +4983,7 @@
         <f>-L11</f>
         <v>-65</v>
       </c>
-      <c r="AF26" s="18"/>
+      <c r="AF26" s="17"/>
       <c r="AG26" s="6">
         <v>-1.22514845490862E-16</v>
       </c>
@@ -5082,8 +5034,8 @@
       <c r="N27" s="6">
         <v>1</v>
       </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="22">
+      <c r="V27" s="23"/>
+      <c r="W27" s="21">
         <v>0</v>
       </c>
       <c r="X27" s="6">
@@ -5121,72 +5073,72 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V28" s="24"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V29" s="24"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="G30" s="64" t="s">
+      <c r="C30" s="61"/>
+      <c r="G30" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="L30" s="64" t="s">
+      <c r="H30" s="61"/>
+      <c r="L30" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="64"/>
-      <c r="V30" s="24"/>
-      <c r="X30" s="64" t="s">
+      <c r="M30" s="61"/>
+      <c r="V30" s="23"/>
+      <c r="X30" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="64"/>
-      <c r="AC30" s="64" t="s">
+      <c r="Y30" s="61"/>
+      <c r="AC30" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AD30" s="64"/>
-      <c r="AH30" s="64" t="s">
+      <c r="AD30" s="61"/>
+      <c r="AH30" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="64"/>
+      <c r="AI30" s="61"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="F31" s="63" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="F31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="K31" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="V31" s="24"/>
-      <c r="X31" s="64" t="s">
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="V31" s="23"/>
+      <c r="X31" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="Y31" s="64"/>
-      <c r="AC31" s="64" t="s">
+      <c r="Y31" s="61"/>
+      <c r="AC31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="64"/>
-      <c r="AG31" s="63" t="s">
+      <c r="AD31" s="61"/>
+      <c r="AG31" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -5234,7 +5186,7 @@
       <c r="N32" s="6">
         <v>23.5</v>
       </c>
-      <c r="V32" s="24"/>
+      <c r="V32" s="23"/>
       <c r="X32" s="13" t="s">
         <v>73</v>
       </c>
@@ -5311,7 +5263,7 @@
       <c r="N33" s="6">
         <v>0</v>
       </c>
-      <c r="V33" s="24"/>
+      <c r="V33" s="23"/>
       <c r="AC33" s="8" t="s">
         <v>79</v>
       </c>
@@ -5380,7 +5332,7 @@
       <c r="N34" s="6">
         <v>191</v>
       </c>
-      <c r="V34" s="24"/>
+      <c r="V34" s="23"/>
       <c r="AC34" s="8" t="s">
         <v>80</v>
       </c>
@@ -5441,11 +5393,11 @@
       <c r="N35" s="6">
         <v>1</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="X35" s="64" t="s">
+      <c r="V35" s="23"/>
+      <c r="X35" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" s="64"/>
+      <c r="Y35" s="61"/>
       <c r="AC35" s="8" t="s">
         <v>89</v>
       </c>
@@ -5467,11 +5419,11 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V36" s="24"/>
-      <c r="X36" s="63" t="s">
+      <c r="V36" s="23"/>
+      <c r="X36" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="Y36" s="63"/>
+      <c r="Y36" s="62"/>
       <c r="AC36" s="12" t="s">
         <v>81</v>
       </c>
@@ -5481,7 +5433,7 @@
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V37" s="24"/>
+      <c r="V37" s="23"/>
       <c r="X37" s="8" t="s">
         <v>77</v>
       </c>
@@ -5497,19 +5449,19 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="G38" s="64" t="s">
+      <c r="C38" s="61"/>
+      <c r="G38" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="L38" s="64" t="s">
+      <c r="H38" s="61"/>
+      <c r="L38" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="64"/>
-      <c r="V38" s="24"/>
+      <c r="M38" s="61"/>
+      <c r="V38" s="23"/>
       <c r="X38" s="6">
         <f>(AJ24*COS(-Y32))-AJ25*SIN(-Y32)</f>
         <v>598.5</v>
@@ -5527,25 +5479,25 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="F39" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="F39" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="K39" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="V39" s="24"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="V39" s="23"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -5587,7 +5539,7 @@
       <c r="N40" s="6">
         <v>598.5</v>
       </c>
-      <c r="V40" s="24"/>
+      <c r="V40" s="23"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -5626,19 +5578,19 @@
       <c r="N41" s="6">
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="V41" s="24"/>
-      <c r="X41" s="64" t="s">
+      <c r="V41" s="23"/>
+      <c r="X41" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" s="64"/>
-      <c r="AC41" s="64" t="s">
+      <c r="Y41" s="61"/>
+      <c r="AC41" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AD41" s="64"/>
-      <c r="AH41" s="64" t="s">
+      <c r="AD41" s="61"/>
+      <c r="AH41" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AI41" s="64"/>
+      <c r="AI41" s="61"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -5677,25 +5629,25 @@
       <c r="N42" s="6">
         <v>841</v>
       </c>
-      <c r="V42" s="24"/>
-      <c r="W42" s="63" t="s">
+      <c r="V42" s="23"/>
+      <c r="W42" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AB42" s="63" t="s">
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AB42" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="63"/>
-      <c r="AG42" s="63" t="s">
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AG42" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -5734,8 +5686,8 @@
       <c r="N43" s="6">
         <v>1</v>
       </c>
-      <c r="V43" s="24"/>
-      <c r="W43" s="22">
+      <c r="V43" s="23"/>
+      <c r="W43" s="21">
         <f>COS(AC7-RADIANS(90))</f>
         <v>6.1257422745431001E-17</v>
       </c>
@@ -5751,7 +5703,7 @@
         <f>M7*COS(AC7-RADIANS(90))</f>
         <v>3.981732478453015E-14</v>
       </c>
-      <c r="AA43" s="18"/>
+      <c r="AA43" s="17"/>
       <c r="AB43" s="6">
         <f>COS(AC8+RADIANS(180))</f>
         <v>-1</v>
@@ -5768,7 +5720,7 @@
         <f>M8*COS(AC8+RADIANS(180))</f>
         <v>0</v>
       </c>
-      <c r="AF43" s="18"/>
+      <c r="AF43" s="17"/>
       <c r="AG43" s="6">
         <f t="array" ref="AG43:AJ46">MMULT(AG32:AJ35,W43:Z46)</f>
         <v>6.1257422745431001E-17</v>
@@ -5784,8 +5736,8 @@
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V44" s="24"/>
-      <c r="W44" s="22">
+      <c r="V44" s="23"/>
+      <c r="W44" s="21">
         <f>SIN(AC7-RADIANS(90))</f>
         <v>-1</v>
       </c>
@@ -5801,7 +5753,7 @@
         <f>M7*SIN(AC7-RADIANS(90))</f>
         <v>-650</v>
       </c>
-      <c r="AA44" s="18"/>
+      <c r="AA44" s="17"/>
       <c r="AB44" s="6">
         <f>SIN(AC8+RADIANS(180))</f>
         <v>1.22514845490862E-16</v>
@@ -5818,7 +5770,7 @@
         <f>M8*SIN(AC8+RADIANS(180))</f>
         <v>0</v>
       </c>
-      <c r="AF44" s="18"/>
+      <c r="AF44" s="17"/>
       <c r="AG44" s="6">
         <v>-6.1257422745431001E-17</v>
       </c>
@@ -5833,8 +5785,8 @@
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="V45" s="24"/>
-      <c r="W45" s="22">
+      <c r="V45" s="23"/>
+      <c r="W45" s="21">
         <v>0</v>
       </c>
       <c r="X45" s="6">
@@ -5849,7 +5801,7 @@
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="18"/>
+      <c r="AA45" s="17"/>
       <c r="AB45" s="6">
         <v>0</v>
       </c>
@@ -5865,7 +5817,7 @@
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="AF45" s="18"/>
+      <c r="AF45" s="17"/>
       <c r="AG45" s="6">
         <v>1</v>
       </c>
@@ -5880,20 +5832,20 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="G46" s="64" t="s">
+      <c r="C46" s="61"/>
+      <c r="G46" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="64"/>
-      <c r="L46" s="64" t="s">
+      <c r="H46" s="61"/>
+      <c r="L46" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="64"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="22">
+      <c r="M46" s="61"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="21">
         <v>0</v>
       </c>
       <c r="X46" s="6">
@@ -5905,7 +5857,7 @@
       <c r="Z46" s="6">
         <v>1</v>
       </c>
-      <c r="AA46" s="18"/>
+      <c r="AA46" s="17"/>
       <c r="AB46" s="6">
         <v>0</v>
       </c>
@@ -5918,7 +5870,7 @@
       <c r="AE46" s="6">
         <v>1</v>
       </c>
-      <c r="AF46" s="18"/>
+      <c r="AF46" s="17"/>
       <c r="AG46" s="6">
         <v>0</v>
       </c>
@@ -5933,25 +5885,25 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="F47" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="K47" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="F47" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="K47" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="V47" s="24"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="V47" s="23"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
@@ -5993,7 +5945,7 @@
       <c r="N48" s="6">
         <v>598.5</v>
       </c>
-      <c r="V48" s="24"/>
+      <c r="V48" s="23"/>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -6032,23 +5984,23 @@
       <c r="N49" s="6">
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="V49" s="24"/>
-      <c r="X49" s="64" t="s">
+      <c r="V49" s="23"/>
+      <c r="X49" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="Y49" s="64"/>
-      <c r="AB49" s="64" t="s">
+      <c r="Y49" s="61"/>
+      <c r="AB49" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="64"/>
-      <c r="AG49" s="64" t="s">
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AG49" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="AH49" s="64"/>
-      <c r="AI49" s="64"/>
-      <c r="AJ49" s="64"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -6087,25 +6039,25 @@
       <c r="N50" s="6">
         <v>776</v>
       </c>
-      <c r="V50" s="24"/>
-      <c r="W50" s="63" t="s">
+      <c r="V50" s="23"/>
+      <c r="W50" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AB50" s="63" t="s">
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AB50" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AG50" s="63" t="s">
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
+      <c r="AG50" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="62"/>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -6144,8 +6096,8 @@
       <c r="N51" s="6">
         <v>1</v>
       </c>
-      <c r="V51" s="24"/>
-      <c r="W51" s="22">
+      <c r="V51" s="23"/>
+      <c r="W51" s="21">
         <f t="array" ref="W51:Z54">MMULT(AG43:AJ46,AB43:AE46)</f>
         <v>6.1257422745431001E-17</v>
       </c>
@@ -6158,7 +6110,7 @@
       <c r="Z51" s="6">
         <v>23.500000000000039</v>
       </c>
-      <c r="AA51" s="18"/>
+      <c r="AA51" s="17"/>
       <c r="AB51" s="6">
         <f>W51</f>
         <v>6.1257422745431001E-17</v>
@@ -6174,7 +6126,7 @@
       <c r="AE51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AF51" s="18"/>
+      <c r="AF51" s="17"/>
       <c r="AG51" s="6">
         <f t="array" ref="AG51:AI53">MMULT(AB51:AD53,W24:Y26)</f>
         <v>6.1257422745431013E-17</v>
@@ -6190,8 +6142,8 @@
       </c>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="V52" s="24"/>
-      <c r="W52" s="22">
+      <c r="V52" s="23"/>
+      <c r="W52" s="21">
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="X52" s="6">
@@ -6203,7 +6155,7 @@
       <c r="Z52" s="6">
         <v>-3.9997719450509805E-14</v>
       </c>
-      <c r="AA52" s="18"/>
+      <c r="AA52" s="17"/>
       <c r="AB52" s="6">
         <f>X51</f>
         <v>-5.3581053980339398E-17</v>
@@ -6219,7 +6171,7 @@
       <c r="AE52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AF52" s="18"/>
+      <c r="AF52" s="17"/>
       <c r="AG52" s="6">
         <v>1.7609589947120141E-16</v>
       </c>
@@ -6234,8 +6186,8 @@
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="V53" s="24"/>
-      <c r="W53" s="22">
+      <c r="V53" s="23"/>
+      <c r="W53" s="21">
         <v>-1</v>
       </c>
       <c r="X53" s="6">
@@ -6247,7 +6199,7 @@
       <c r="Z53" s="6">
         <v>841</v>
       </c>
-      <c r="AA53" s="18"/>
+      <c r="AA53" s="17"/>
       <c r="AB53" s="6">
         <f>Y51</f>
         <v>1</v>
@@ -6263,7 +6215,7 @@
       <c r="AE53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AF53" s="18"/>
+      <c r="AF53" s="17"/>
       <c r="AG53" s="6">
         <v>-1</v>
       </c>
@@ -6278,8 +6230,8 @@
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="V54" s="24"/>
-      <c r="W54" s="22">
+      <c r="V54" s="23"/>
+      <c r="W54" s="21">
         <v>0</v>
       </c>
       <c r="X54" s="6">
@@ -6291,7 +6243,7 @@
       <c r="Z54" s="6">
         <v>1</v>
       </c>
-      <c r="AA54" s="18"/>
+      <c r="AA54" s="17"/>
       <c r="AB54" s="6" t="s">
         <v>52</v>
       </c>
@@ -6304,7 +6256,7 @@
       <c r="AE54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AF54" s="18"/>
+      <c r="AF54" s="17"/>
       <c r="AG54" s="6" t="s">
         <v>52</v>
       </c>
@@ -6319,182 +6271,212 @@
       </c>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="V55" s="24"/>
-      <c r="AE55" s="19"/>
+      <c r="V55" s="23"/>
+      <c r="AE55" s="18"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="73"/>
-      <c r="AG56" s="73"/>
-      <c r="AH56" s="73"/>
-      <c r="AI56" s="73"/>
-      <c r="AJ56" s="73"/>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="73"/>
-      <c r="AM56" s="73"/>
-      <c r="AN56" s="73"/>
-      <c r="AO56" s="73"/>
-      <c r="AP56" s="73"/>
-      <c r="AQ56" s="73"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="73"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="80"/>
+      <c r="AM56" s="80"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="80"/>
+      <c r="AP56" s="80"/>
+      <c r="AQ56" s="80"/>
+      <c r="AR56" s="80"/>
+      <c r="AS56" s="80"/>
     </row>
     <row r="57" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="69"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="69"/>
-      <c r="AF57" s="69"/>
-      <c r="AG57" s="69"/>
-      <c r="AH57" s="69"/>
-      <c r="AI57" s="69"/>
-      <c r="AJ57" s="69"/>
-      <c r="AK57" s="69"/>
-      <c r="AL57" s="69"/>
-      <c r="AM57" s="69"/>
-      <c r="AN57" s="69"/>
-      <c r="AO57" s="69"/>
-      <c r="AP57" s="69"/>
-      <c r="AQ57" s="69"/>
-      <c r="AR57" s="69"/>
-      <c r="AS57" s="69"/>
+      <c r="A57" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+      <c r="AC57" s="73"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="73"/>
+      <c r="AF57" s="73"/>
+      <c r="AG57" s="73"/>
+      <c r="AH57" s="73"/>
+      <c r="AI57" s="73"/>
+      <c r="AJ57" s="73"/>
+      <c r="AK57" s="73"/>
+      <c r="AL57" s="73"/>
+      <c r="AM57" s="73"/>
+      <c r="AN57" s="73"/>
+      <c r="AO57" s="73"/>
+      <c r="AP57" s="73"/>
+      <c r="AQ57" s="73"/>
+      <c r="AR57" s="73"/>
+      <c r="AS57" s="73"/>
     </row>
     <row r="58" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="24"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="36"/>
+      <c r="AJ58" s="36"/>
+      <c r="AK58" s="36"/>
+      <c r="AL58" s="36"/>
+      <c r="AM58" s="36"/>
+      <c r="AN58" s="36"/>
+      <c r="AO58" s="36"/>
+      <c r="AP58" s="36"/>
+      <c r="AQ58" s="36"/>
+      <c r="AR58" s="36"/>
+      <c r="AS58" s="36"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="F59" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="F59" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="K59" s="62" t="s">
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="K59" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="AA59" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB59" s="55"/>
+    </row>
+    <row r="60" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="76" t="s">
         <v>108</v>
-      </c>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="V59" s="24"/>
-    </row>
-    <row r="60" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
-        <v>110</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" ref="B60:B62" si="4">M32</f>
         <v>0</v>
       </c>
-      <c r="C60" s="65" t="s">
-        <v>113</v>
+      <c r="C60" s="76" t="s">
+        <v>111</v>
       </c>
       <c r="D60" s="6">
         <f>M40</f>
         <v>0</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>107</v>
+      <c r="I60" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="K60" s="6">
         <f>H61</f>
@@ -6508,7 +6490,7 @@
         <f>H67</f>
         <v>-3.9817324784530174E-15</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="25">
         <f>H70</f>
         <v>-65</v>
       </c>
@@ -6520,31 +6502,46 @@
         <f>H76</f>
         <v>0</v>
       </c>
-      <c r="V60" s="24"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="X60" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y60" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA60" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB60" s="83" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C61" s="66"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="6">
         <f>M41</f>
         <v>1</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="76" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6">
         <f>N48-B72</f>
         <v>575</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="25">
         <f>B61*G63-B62*G62</f>
         <v>585</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="25">
         <f t="shared" ref="I61:I69" si="5">B60</f>
         <v>0</v>
       </c>
@@ -6559,7 +6556,7 @@
         <f>H68</f>
         <v>65.000000000000028</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N61" s="25">
         <f>H71</f>
         <v>0</v>
       </c>
@@ -6571,20 +6568,25 @@
         <f>H77</f>
         <v>0</v>
       </c>
-      <c r="V61" s="24"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="6">
         <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="6">
         <f>M42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="F62" s="66"/>
+      <c r="F62" s="77"/>
       <c r="G62" s="6">
         <f>N49-B73</f>
         <v>3.369158250998705E-15</v>
@@ -6609,7 +6611,7 @@
         <f>H69</f>
         <v>7.9634649569060301E-15</v>
       </c>
-      <c r="N62" s="26">
+      <c r="N62" s="25">
         <f>H72</f>
         <v>0</v>
       </c>
@@ -6621,24 +6623,40 @@
         <f>H78</f>
         <v>0</v>
       </c>
-      <c r="V62" s="24"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3">
+        <v>-170</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>170</v>
+      </c>
+      <c r="AA62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="84" t="str">
+        <f>IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
+        <v>N</v>
+      </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
-        <v>111</v>
+      <c r="A63" s="76" t="s">
+        <v>109</v>
       </c>
       <c r="B63" s="6">
         <f>C40</f>
         <v>0</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>114</v>
+      <c r="C63" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="6">
         <f>C48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F63" s="67"/>
+      <c r="F63" s="78"/>
       <c r="G63" s="6">
         <f>N50-B74</f>
         <v>585</v>
@@ -6675,27 +6693,43 @@
         <f>I76</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="V63" s="24"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X63" s="3">
+        <v>-60</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>90</v>
+      </c>
+      <c r="AA63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB63" s="84" t="str">
+        <f>IF(OR(AB7&gt;Y63, AB7&lt;X63), "L", "N")</f>
+        <v>N</v>
+      </c>
     </row>
     <row r="64" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="6">
         <f>C41</f>
         <v>1</v>
       </c>
-      <c r="C64" s="66"/>
+      <c r="C64" s="77"/>
       <c r="D64" s="6">
         <f>C49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="F64" s="76" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="6">
         <f>N48-B75</f>
         <v>575</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H64" s="25">
         <f>B64*G66-B65*G65</f>
         <v>-65</v>
       </c>
@@ -6727,20 +6761,36 @@
         <f>I77</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="V64" s="24"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X64" s="3">
+        <v>-90</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB64" s="84" t="str">
+        <f>IF(OR(AB8&gt;Y64, AB8&lt;X64), "L", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A65" s="78"/>
       <c r="B65" s="6">
         <f>C42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="6">
         <f>C50</f>
         <v>-1</v>
       </c>
-      <c r="F65" s="66"/>
+      <c r="F65" s="77"/>
       <c r="G65" s="6">
         <f>N49-B76</f>
         <v>4.3186483035528855E-14</v>
@@ -6777,24 +6827,40 @@
         <f>I78</f>
         <v>-1</v>
       </c>
-      <c r="V65" s="24"/>
-    </row>
-    <row r="66" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
-        <v>112</v>
+      <c r="V65" s="23"/>
+      <c r="W65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" s="3">
+        <v>-145</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>145</v>
+      </c>
+      <c r="AA65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB65" s="84" t="str">
+        <f>IF(OR(AB9&gt;Y65, AB9&lt;X65), "L", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="B66" s="6">
         <f>H40</f>
         <v>1</v>
       </c>
-      <c r="C66" s="65" t="s">
-        <v>119</v>
+      <c r="C66" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="D66" s="6">
         <f>H48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F66" s="67"/>
+      <c r="F66" s="78"/>
       <c r="G66" s="6">
         <f>N50-B77</f>
         <v>-65</v>
@@ -6807,27 +6873,43 @@
         <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="V66" s="24"/>
-    </row>
-    <row r="67" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X66" s="3">
+        <v>-90</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>105</v>
+      </c>
+      <c r="AA66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB66" s="84" t="str">
+        <f>IF(OR(AB10&gt;Y66, AB10&lt;X66), "L", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="77"/>
       <c r="B67" s="6">
         <f>H41</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="6">
         <f>H49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="76" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="6">
         <f>N48-B78</f>
         <v>575</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H67" s="25">
         <f>B67*G69-B68*G68</f>
         <v>-3.9817324784530174E-15</v>
       </c>
@@ -6835,20 +6917,36 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V67" s="24"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X67" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>155</v>
+      </c>
+      <c r="AA67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB67" s="84" t="str">
+        <f>IF(OR(AB11&gt;Y67, AB11&lt;X67), "L", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" s="78"/>
       <c r="B68" s="6">
         <f>H42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C68" s="67"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="6">
         <f>H50</f>
         <v>-1</v>
       </c>
-      <c r="F68" s="66"/>
+      <c r="F68" s="77"/>
       <c r="G68" s="6">
         <f>N49-B79</f>
         <v>4.3186483035528855E-14</v>
@@ -6861,14 +6959,14 @@
         <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M68" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="N68" s="62"/>
-      <c r="V68" s="24"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F69" s="67"/>
+      <c r="M68" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="N68" s="81"/>
+      <c r="V68" s="23"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F69" s="78"/>
       <c r="G69" s="6">
         <f>N50-B80</f>
         <v>-65</v>
@@ -6881,25 +6979,25 @@
         <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M69" s="28" t="str">
+      <c r="M69" s="27" t="str">
         <f>IF(N69=0, "S", "N")</f>
         <v>N</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="16">
         <f>MDETERM(K60:P65)</f>
         <v>-2.9763450276436287E-9</v>
       </c>
-      <c r="V69" s="24"/>
-    </row>
-    <row r="70" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="65" t="s">
+      <c r="V69" s="23"/>
+    </row>
+    <row r="70" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="76" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="6">
         <f>N48-D72</f>
         <v>0</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="25">
         <f>D61*G72-D62*G71</f>
         <v>-65</v>
       </c>
@@ -6907,16 +7005,21 @@
         <f t="shared" ref="I70:I78" si="6">D60</f>
         <v>0</v>
       </c>
-      <c r="V70" s="24"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="F71" s="66"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A71" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="F71" s="77"/>
       <c r="G71" s="6">
         <f>N49-D73</f>
         <v>7.9634649569060301E-15</v>
@@ -6929,24 +7032,33 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V71" s="24"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
-        <v>110</v>
+      <c r="V71" s="23"/>
+      <c r="W71" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="X71" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y71" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A72" s="76" t="s">
+        <v>108</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" ref="B72:B74" si="7">N32</f>
         <v>23.5</v>
       </c>
-      <c r="C72" s="65" t="s">
-        <v>113</v>
+      <c r="C72" s="76" t="s">
+        <v>111</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" ref="D72:D74" si="8">N40</f>
         <v>598.5</v>
       </c>
-      <c r="F72" s="67"/>
+      <c r="F72" s="78"/>
       <c r="G72" s="6">
         <f>N50-D74</f>
         <v>-65</v>
@@ -6959,27 +7071,30 @@
         <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="V72" s="24"/>
-    </row>
-    <row r="73" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="68"/>
+      <c r="X72" s="68"/>
+      <c r="Y72" s="68"/>
+    </row>
+    <row r="73" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="77"/>
       <c r="B73" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="C73" s="66"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="6">
         <f t="shared" si="8"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F73" s="65" t="s">
+      <c r="F73" s="76" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="6">
         <f>N48-D75</f>
         <v>0</v>
       </c>
-      <c r="H73" s="26">
+      <c r="H73" s="25">
         <f>D64*G75-D65*G74</f>
         <v>0</v>
       </c>
@@ -6987,20 +7102,29 @@
         <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="V73" s="24"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="67"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" s="78"/>
       <c r="B74" s="6">
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="C74" s="67"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="6">
         <f t="shared" si="8"/>
         <v>841</v>
       </c>
-      <c r="F74" s="66"/>
+      <c r="F74" s="77"/>
       <c r="G74" s="6">
         <f>N49-D76</f>
         <v>7.9634649569060301E-15</v>
@@ -7014,24 +7138,33 @@
         <v>1.22514845490862E-16</v>
       </c>
       <c r="O74"/>
-      <c r="V74" s="24"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
-        <v>111</v>
+      <c r="V74" s="23"/>
+      <c r="W74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" s="76" t="s">
+        <v>109</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" ref="B75:B77" si="9">D40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C75" s="65" t="s">
-        <v>114</v>
+      <c r="C75" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" ref="D75:D77" si="10">D48</f>
         <v>598.5</v>
       </c>
-      <c r="F75" s="67"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="6">
         <f>N50-D77</f>
         <v>-65</v>
@@ -7044,27 +7177,36 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="V75" s="24"/>
-    </row>
-    <row r="76" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="77"/>
       <c r="B76" s="6">
         <f t="shared" si="9"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C76" s="66"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="6">
         <f t="shared" si="10"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="76" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="6">
         <f>N48-D78</f>
         <v>0</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H76" s="25">
         <f>D67*G78-D68*G77</f>
         <v>0</v>
       </c>
@@ -7073,20 +7215,29 @@
         <v>1.22514845490862E-16</v>
       </c>
       <c r="R76"/>
-      <c r="V76" s="24"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" s="78"/>
       <c r="B77" s="6">
         <f t="shared" si="9"/>
         <v>841</v>
       </c>
-      <c r="C77" s="67"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="6">
         <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="F77" s="66"/>
+      <c r="F77" s="77"/>
       <c r="G77" s="6">
         <f>N49-D79</f>
         <v>0</v>
@@ -7099,24 +7250,33 @@
         <f t="shared" si="6"/>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="V77" s="24"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
-        <v>112</v>
+      <c r="V77" s="23"/>
+      <c r="W77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" ref="B78:B80" si="11">I40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C78" s="65" t="s">
-        <v>119</v>
+      <c r="C78" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" ref="D78:D80" si="12">I48</f>
         <v>598.5</v>
       </c>
-      <c r="F78" s="67"/>
+      <c r="F78" s="78"/>
       <c r="G78" s="6">
         <f>N50-D80</f>
         <v>0</v>
@@ -7129,90 +7289,114 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="V78" s="24"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" s="77"/>
       <c r="B79" s="6">
         <f t="shared" si="11"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C79" s="66"/>
+      <c r="C79" s="77"/>
       <c r="D79" s="6">
         <f t="shared" si="12"/>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="V79" s="24"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="67"/>
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="78"/>
       <c r="B80" s="6">
         <f t="shared" si="11"/>
         <v>841</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="6">
         <f t="shared" si="12"/>
         <v>776</v>
       </c>
-      <c r="V80" s="24"/>
+      <c r="V80" s="23"/>
     </row>
     <row r="81" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V81" s="24"/>
+      <c r="V81" s="23"/>
     </row>
     <row r="82" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V82" s="24"/>
+      <c r="V82" s="23"/>
     </row>
     <row r="83" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V83" s="24"/>
+      <c r="V83" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X35:Y35"/>
+  <mergeCells count="129">
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="Y71:Y72"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W58:AS58"/>
+    <mergeCell ref="AA60:AA61"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="K59:P59"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="W2:AS2"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="W57:AS57"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A56:AS56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="W1:AS1"/>
     <mergeCell ref="AG42:AJ42"/>
     <mergeCell ref="W50:Z50"/>
@@ -7237,54 +7421,51 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="W2:AS2"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="W57:AS57"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A56:AS56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="K59:P59"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="X14:Y14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Breakdown/Excel/Arm Info.xlsx
+++ b/Breakdown/Excel/Arm Info.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\7. TUGAS AKHIR\Arm Manipulator\Breakdown\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C9AA5-E8F1-4A4D-A717-1C84B02964AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA4F6B5-27FD-4A4A-8B3D-968BB66854D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
   </bookViews>
   <sheets>
     <sheet name="Stepper Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Cable Connection" sheetId="3" r:id="rId2"/>
-    <sheet name="Kinematics Overview" sheetId="2" r:id="rId3"/>
+    <sheet name="Speed Sync Calculation" sheetId="4" r:id="rId2"/>
+    <sheet name="Cable Connection" sheetId="3" r:id="rId3"/>
+    <sheet name="Kinematics Overview" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="187">
   <si>
     <t>No</t>
   </si>
@@ -655,6 +656,30 @@
   </si>
   <si>
     <t>JOINT ANGLE LIMIT</t>
+  </si>
+  <si>
+    <t>Current
+Angle</t>
+  </si>
+  <si>
+    <t>Goal
+Angle</t>
+  </si>
+  <si>
+    <t>Delta
+Angle</t>
+  </si>
+  <si>
+    <t>Sync
+RPM</t>
+  </si>
+  <si>
+    <t>Max
+Angle</t>
+  </si>
+  <si>
+    <t>Max
+Joint RPM</t>
   </si>
 </sst>
 </file>
@@ -967,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,7 +1243,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2294,7 +2322,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2843,11 +2871,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7C7809-8610-4458-B9DF-C9E7209DEAE1}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="8" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="84">
+        <v>10</v>
+      </c>
+      <c r="D3" s="84">
+        <v>15</v>
+      </c>
+      <c r="E3" s="84">
+        <f>ABS(D3-C3)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="49">
+        <v>5</v>
+      </c>
+      <c r="G3" s="85">
+        <f>MAX(E3:E8)</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="3">
+        <f>F3*(E3/G3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="84">
+        <v>5</v>
+      </c>
+      <c r="D4" s="84">
+        <v>20</v>
+      </c>
+      <c r="E4" s="84">
+        <f t="shared" ref="E4:E8" si="0">ABS(D4-C4)</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="3">
+        <f>F3*(E4/G3)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="84">
+        <v>-10</v>
+      </c>
+      <c r="D5" s="84">
+        <v>30</v>
+      </c>
+      <c r="E5" s="84">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="3">
+        <f>F3*(E5/G3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="84">
+        <v>20</v>
+      </c>
+      <c r="D6" s="84">
+        <v>40</v>
+      </c>
+      <c r="E6" s="84">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="3">
+        <f>F3*(E6/G3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="84">
+        <v>-15</v>
+      </c>
+      <c r="D7" s="84">
+        <v>35</v>
+      </c>
+      <c r="E7" s="84">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="3">
+        <f>F3*(E7/G3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="84">
+        <v>5</v>
+      </c>
+      <c r="D8" s="84">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="3">
+        <f>F3*(E8/G3)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H4" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119A60BB-A318-41A1-9642-6D3A473AEA27}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3529,12 +3770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF990D27-4B97-4251-AD4B-2BBC3FAFA5B8}">
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z78" sqref="Z78"/>
+    <sheetView zoomScale="38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -3830,7 +4071,7 @@
         <v>43</v>
       </c>
       <c r="X6" s="6">
-        <f t="shared" ref="X6:X11" si="0">P6</f>
+        <f>P6</f>
         <v>598.5</v>
       </c>
       <c r="Y6" s="49" t="s">
@@ -3899,7 +4140,7 @@
         <v>44</v>
       </c>
       <c r="X7" s="6">
-        <f t="shared" si="0"/>
+        <f>P7</f>
         <v>3.369158250998705E-15</v>
       </c>
       <c r="Y7" s="54"/>
@@ -3966,7 +4207,6 @@
         <v>45</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" si="0"/>
         <v>776</v>
       </c>
       <c r="Y8" s="50"/>
@@ -3993,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:D11" si="1">RADIANS(C9)</f>
+        <f t="shared" ref="D9:D11" si="0">RADIANS(C9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -4039,7 +4279,7 @@
         <v>47</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" si="0"/>
+        <f>P9</f>
         <v>180</v>
       </c>
       <c r="Y9" s="6">
@@ -4115,11 +4355,11 @@
         <v>48</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" si="0"/>
+        <f>P10</f>
         <v>7.0195835743237771E-15</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" ref="Y10:Y11" si="2">RADIANS(X10)</f>
+        <f t="shared" ref="Y10:Y11" si="1">RADIANS(X10)</f>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -4145,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -4191,11 +4431,11 @@
         <v>46</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" si="0"/>
+        <f>P11</f>
         <v>180</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -4348,19 +4588,19 @@
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="6">
-        <f t="shared" ref="AB16:AE19" si="3">F32</f>
+        <f t="shared" ref="AB16:AE19" si="2">F32</f>
         <v>1</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF16" s="17"/>
@@ -4445,19 +4685,19 @@
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF17" s="17"/>
@@ -4540,19 +4780,19 @@
       </c>
       <c r="AA18" s="17"/>
       <c r="AB18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF18" s="17"/>
@@ -4625,19 +4865,19 @@
       </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF19" s="17"/>
@@ -6456,7 +6696,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" ref="B60:B62" si="4">M32</f>
+        <f t="shared" ref="B60:B62" si="3">M32</f>
         <v>0</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -6522,7 +6762,7 @@
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="77"/>
       <c r="B61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C61" s="77"/>
@@ -6542,7 +6782,7 @@
         <v>585</v>
       </c>
       <c r="I61" s="25">
-        <f t="shared" ref="I61:I69" si="5">B60</f>
+        <f t="shared" ref="I61:I69" si="4">B60</f>
         <v>0</v>
       </c>
       <c r="K61" s="6">
@@ -6578,7 +6818,7 @@
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="78"/>
       <c r="B62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C62" s="78"/>
@@ -6596,7 +6836,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K62" s="6">
@@ -6636,8 +6876,8 @@
       <c r="AA62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AB62" s="84" t="str">
-        <f>IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
+      <c r="AB62" s="3" t="str">
+        <f t="shared" ref="AB62:AB67" si="5">IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
         <v>N</v>
       </c>
     </row>
@@ -6666,7 +6906,7 @@
         <v>-575</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K63" s="6">
@@ -6706,8 +6946,8 @@
       <c r="AA63" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB63" s="84" t="str">
-        <f>IF(OR(AB7&gt;Y63, AB7&lt;X63), "L", "N")</f>
+      <c r="AB63" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -6734,7 +6974,7 @@
         <v>-65</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
@@ -6774,8 +7014,8 @@
       <c r="AA64" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AB64" s="84" t="str">
-        <f>IF(OR(AB8&gt;Y64, AB8&lt;X64), "L", "N")</f>
+      <c r="AB64" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -6800,7 +7040,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K65" s="6">
@@ -6840,8 +7080,8 @@
       <c r="AA65" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AB65" s="84" t="str">
-        <f>IF(OR(AB9&gt;Y65, AB9&lt;X65), "L", "N")</f>
+      <c r="AB65" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -6870,7 +7110,7 @@
         <v>-575</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V66" s="23"/>
@@ -6886,8 +7126,8 @@
       <c r="AA66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AB66" s="84" t="str">
-        <f>IF(OR(AB10&gt;Y66, AB10&lt;X66), "L", "N")</f>
+      <c r="AB66" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -6914,7 +7154,7 @@
         <v>-3.9817324784530174E-15</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V67" s="23"/>
@@ -6930,8 +7170,8 @@
       <c r="AA67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="84" t="str">
-        <f>IF(OR(AB11&gt;Y67, AB11&lt;X67), "L", "N")</f>
+      <c r="AB67" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -6956,7 +7196,7 @@
         <v>65.000000000000028</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="M68" s="81" t="s">
@@ -6976,7 +7216,7 @@
         <v>7.9634649569060301E-15</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="M69" s="27" t="str">

--- a/Breakdown/Excel/Arm Info.xlsx
+++ b/Breakdown/Excel/Arm Info.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\7. TUGAS AKHIR\Arm Manipulator\Breakdown\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA4F6B5-27FD-4A4A-8B3D-968BB66854D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5E3D3-A78B-4E7E-82C2-9A804415FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
   </bookViews>
   <sheets>
     <sheet name="Stepper Information" sheetId="1" r:id="rId1"/>
     <sheet name="Speed Sync Calculation" sheetId="4" r:id="rId2"/>
     <sheet name="Cable Connection" sheetId="3" r:id="rId3"/>
     <sheet name="Kinematics Overview" sheetId="2" r:id="rId4"/>
+    <sheet name="Repeatability Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="203">
   <si>
     <t>No</t>
   </si>
@@ -610,13 +611,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>ON
-PROGRESS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -680,18 +674,73 @@
   <si>
     <t>Max
 Joint RPM</t>
+  </si>
+  <si>
+    <t>Start Pos</t>
+  </si>
+  <si>
+    <t>Goal Pos</t>
+  </si>
+  <si>
+    <t>X Axis</t>
+  </si>
+  <si>
+    <t>Y Axis</t>
+  </si>
+  <si>
+    <t>Z Axis</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>PENGUJIAN NILAI ERROR 1</t>
+  </si>
+  <si>
+    <t>Delta Pos</t>
+  </si>
+  <si>
+    <t>PENGUJIAN NILAI ERROR 2</t>
+  </si>
+  <si>
+    <t>Error^2</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Error - Mean Error</t>
+  </si>
+  <si>
+    <t>Mean Error</t>
+  </si>
+  <si>
+    <t>Standar Deviasi</t>
+  </si>
+  <si>
+    <t>(Error - Mean Error)^2</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.E+00"/>
     <numFmt numFmtId="166" formatCode="0.0.E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +835,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,12 +920,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,93 +1171,139 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,10 +1313,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,50 +1328,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,8 +1573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13629656" y="4472541"/>
-          <a:ext cx="4034889" cy="1231665"/>
+          <a:off x="13517754" y="4624941"/>
+          <a:ext cx="4005049" cy="1283886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,7 +2446,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,41 +2456,41 @@
     <col min="3" max="3" width="16.77734375" style="2" customWidth="1"/>
     <col min="4" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="2.77734375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="19" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="2" customWidth="1"/>
     <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="2.77734375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="19" customWidth="1"/>
     <col min="15" max="15" width="4.77734375" style="2" customWidth="1"/>
     <col min="18" max="20" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="O1" s="37" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="O1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2393,7 +2517,7 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2530,7 @@
       <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="36"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2446,17 +2570,17 @@
         <v>800</v>
       </c>
       <c r="E3" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3">
         <v>360</v>
       </c>
       <c r="G3" s="3">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="H3" s="3">
         <f>G3*D3</f>
-        <v>72000</v>
+        <v>129600</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
@@ -2466,7 +2590,7 @@
       </c>
       <c r="L3" s="3">
         <f t="shared" ref="L3:L8" si="0">E3*D3/60</f>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M8" si="1">F3*D3/60</f>
@@ -2480,27 +2604,27 @@
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q8" si="2">E3/G3</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R8" si="3">F3/G3</f>
-        <v>4</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="S3" s="15">
         <f>Q3/60</f>
-        <v>3.3333333333333333E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="T3" s="15">
         <f>R3/60</f>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7037037037037042E-2</v>
       </c>
       <c r="U3" s="15">
         <f>1/T3</f>
-        <v>15</v>
+        <v>26.999999999999996</v>
       </c>
       <c r="V3" s="15">
         <f>U3/6</f>
-        <v>2.5</v>
+        <v>4.4999999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2517,17 +2641,17 @@
         <v>800</v>
       </c>
       <c r="E4" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3">
         <v>315</v>
       </c>
       <c r="G4" s="3">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3">
         <f>G4*D4</f>
-        <v>28800</v>
+        <v>115200</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
@@ -2537,7 +2661,7 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="1"/>
@@ -2551,27 +2675,27 @@
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0.5625</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="3"/>
-        <v>8.75</v>
+        <v>2.1875</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" ref="S4:S8" si="4">Q4/60</f>
-        <v>8.3333333333333329E-2</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T8" si="5">R4/60</f>
-        <v>0.14583333333333334</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" ref="U4:U8" si="6">1/T4</f>
-        <v>6.8571428571428568</v>
+        <v>27.428571428571427</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" ref="V4:V8" si="7">U4/6</f>
-        <v>1.1428571428571428</v>
+        <v>4.5714285714285712</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2588,7 +2712,7 @@
         <v>800</v>
       </c>
       <c r="E5" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <v>360</v>
@@ -2608,7 +2732,7 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="1"/>
@@ -2622,7 +2746,7 @@
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" si="3"/>
@@ -2630,7 +2754,7 @@
       </c>
       <c r="S5" s="15">
         <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" si="5"/>
@@ -2659,17 +2783,17 @@
         <v>800</v>
       </c>
       <c r="E6" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3">
         <v>360</v>
       </c>
       <c r="G6" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>G6*D6</f>
-        <v>7200</v>
+        <v>16000</v>
       </c>
       <c r="J6" s="3">
         <v>4</v>
@@ -2679,7 +2803,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="1"/>
@@ -2693,27 +2817,27 @@
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>4.05</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="S6" s="15">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>6.7499999999999991E-2</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.3</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2730,17 +2854,17 @@
         <v>800</v>
       </c>
       <c r="E7" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3">
         <v>360</v>
       </c>
       <c r="G7" s="3">
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="H7" s="3">
         <f>G7*D7</f>
-        <v>72000</v>
+        <v>18000</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
@@ -2750,7 +2874,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="1"/>
@@ -2764,27 +2888,27 @@
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" si="4"/>
-        <v>3.3333333333333333E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -2801,17 +2925,17 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F8" s="3">
         <v>360</v>
       </c>
       <c r="G8" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <f>G8*D7</f>
-        <v>7200</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="3">
         <v>6</v>
@@ -2821,7 +2945,7 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
@@ -2835,35 +2959,33 @@
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16.2</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="S8" s="15">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="T8" s="15">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>1.2</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:I1048576"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:N1048576"/>
     <mergeCell ref="O1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2874,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7C7809-8610-4458-B9DF-C9E7209DEAE1}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2884,16 +3006,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2903,22 +3025,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2928,26 +3050,26 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="35">
         <v>10</v>
       </c>
-      <c r="D3" s="84">
-        <v>15</v>
-      </c>
-      <c r="E3" s="84">
+      <c r="D3" s="35">
+        <v>11</v>
+      </c>
+      <c r="E3" s="35">
         <f>ABS(D3-C3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="47">
         <v>5</v>
       </c>
-      <c r="F3" s="49">
-        <v>5</v>
-      </c>
-      <c r="G3" s="85">
+      <c r="G3" s="50">
         <f>MAX(E3:E8)</f>
         <v>50</v>
       </c>
       <c r="H3" s="3">
         <f>F3*(E3/G3)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2957,18 +3079,18 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="35">
         <v>5</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="35">
         <v>20</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="35">
         <f t="shared" ref="E4:E8" si="0">ABS(D4-C4)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="3">
         <f>F3*(E4/G3)</f>
         <v>1.5</v>
@@ -2981,18 +3103,18 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="35">
         <v>-10</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="35">
         <v>30</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3">
         <f>F3*(E5/G3)</f>
         <v>4</v>
@@ -3005,18 +3127,18 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="35">
         <v>20</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="35">
         <v>40</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="3">
         <f>F3*(E6/G3)</f>
         <v>2</v>
@@ -3029,18 +3151,18 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="35">
         <v>-15</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="35">
         <v>35</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="3">
         <f>F3*(E7/G3)</f>
         <v>5</v>
@@ -3053,18 +3175,18 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="35">
         <v>5</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="35">
         <v>-10</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="3">
         <f>F3*(E8/G3)</f>
         <v>1.5</v>
@@ -3088,7 +3210,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,24 +3228,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="28"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3170,10 +3292,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -3182,20 +3304,20 @@
       <c r="D3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>20</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <v>3</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <v>6</v>
       </c>
       <c r="H3" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="55" t="s">
         <v>165</v>
       </c>
       <c r="K3" s="3">
@@ -3206,33 +3328,33 @@
       </c>
       <c r="M3" s="3">
         <f>SUM(H3,H13,H15,H19)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N3" s="3">
         <v>25</v>
       </c>
       <c r="O3" s="3">
         <f>IF(M3-N3&lt;0, 0, M3-N3)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="56"/>
       <c r="K4" s="3">
         <v>2</v>
       </c>
@@ -3241,33 +3363,33 @@
       </c>
       <c r="M4" s="3">
         <f>SUM(H14,H16,H20,H22)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3">
         <v>5</v>
       </c>
       <c r="O4" s="3">
         <f>IF(M4-N4&lt;0, 0, M4-N4)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="3">
         <v>3</v>
       </c>
@@ -3287,22 +3409,22 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="50"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="57"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
@@ -3311,21 +3433,21 @@
       </c>
       <c r="M6" s="3">
         <f>SUM(H5,H7,H17)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" s="3">
         <v>36</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ref="O6:O7" si="0">IF(M6-N6&lt;0, 0, M6-N6)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -3334,16 +3456,16 @@
       <c r="D7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="49">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="47">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="55" t="s">
         <v>165</v>
       </c>
       <c r="K7" s="3">
@@ -3354,18 +3476,18 @@
       </c>
       <c r="M7" s="3">
         <f>SUM(H6,H8,H18)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N7" s="3">
         <v>36</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="60"/>
       <c r="C8" s="31" t="s">
         <v>132</v>
@@ -3373,14 +3495,14 @@
       <c r="D8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="50"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="57"/>
       <c r="K8" s="3">
         <v>6</v>
       </c>
@@ -3389,40 +3511,40 @@
       </c>
       <c r="M8" s="3">
         <f>H11+H21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3">
         <v>3</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ref="O8" si="1">IF(M8-N8&lt;0, 0, M8-N8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="49">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="47">
         <v>6</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="47">
         <f>F3*G9</f>
         <v>18</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>167</v>
+      <c r="I9" s="64" t="s">
+        <v>165</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>157</v>
@@ -3432,19 +3554,19 @@
       <c r="N9" s="53"/>
       <c r="O9" s="27">
         <f>SUM(M3:M7)</f>
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="45"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="57"/>
       <c r="K10" s="51" t="s">
         <v>154</v>
       </c>
@@ -3453,51 +3575,51 @@
       <c r="N10" s="53"/>
       <c r="O10" s="27">
         <f>SUM(O3:O7)</f>
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="54">
         <v>4</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="49">
-        <v>1</v>
-      </c>
-      <c r="H11" s="49">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="47">
+        <v>1</v>
+      </c>
+      <c r="H11" s="47">
         <f>G11*F3</f>
         <v>3</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>167</v>
+      <c r="I11" s="64" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="45"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="54">
         <v>5</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="58" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -3506,8 +3628,8 @@
       <c r="D13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3">
         <v>1</v>
       </c>
@@ -3515,21 +3637,21 @@
         <f>G13*F3</f>
         <v>3</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="55" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="3">
         <v>2</v>
       </c>
@@ -3537,13 +3659,13 @@
         <f>G14*F3</f>
         <v>6</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+      <c r="A15" s="54">
         <v>6</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="32" t="s">
@@ -3552,80 +3674,80 @@
       <c r="D15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="49">
-        <v>6</v>
-      </c>
-      <c r="G15" s="49">
+      <c r="E15" s="48"/>
+      <c r="F15" s="47">
+        <v>8</v>
+      </c>
+      <c r="G15" s="47">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>G15*F15</f>
-        <v>6</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3">
         <f>F15*G15</f>
-        <v>6</v>
-      </c>
-      <c r="I16" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="3">
         <f>F15*G15</f>
-        <v>6</v>
-      </c>
-      <c r="I17" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="3">
         <f>F15*G15</f>
-        <v>6</v>
-      </c>
-      <c r="I18" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+      <c r="A19" s="54">
         <v>7</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="58" t="s">
         <v>162</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -3634,44 +3756,44 @@
       <c r="D19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="49">
-        <v>6</v>
-      </c>
-      <c r="G19" s="49">
+      <c r="E19" s="48"/>
+      <c r="F19" s="47">
+        <v>8</v>
+      </c>
+      <c r="G19" s="47">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f>F19*G19</f>
-        <v>6</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="3">
         <f>G19*F19</f>
-        <v>6</v>
-      </c>
-      <c r="I20" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+      <c r="A21" s="54">
         <v>8</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -3680,41 +3802,71 @@
       <c r="D21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="49">
-        <v>2</v>
-      </c>
-      <c r="G21" s="49">
+      <c r="E21" s="48"/>
+      <c r="F21" s="47">
+        <v>3</v>
+      </c>
+      <c r="G21" s="47">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f>G21*F21</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>166</v>
+        <v>3</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="3">
         <f>G21*F21</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="A15:A18"/>
@@ -3731,36 +3883,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3774,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF990D27-4B97-4251-AD4B-2BBC3FAFA5B8}">
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView zoomScale="38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -3789,192 +3911,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
       <c r="V1" s="26"/>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
     </row>
     <row r="2" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
     </row>
     <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="I3" s="63" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="AA3" s="63" t="s">
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="AA3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
     </row>
     <row r="4" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="72"/>
-      <c r="I4" s="74" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="I4" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="65" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="23"/>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="66" t="s">
+      <c r="Y4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="66" t="s">
+      <c r="AA4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="71" t="s">
+      <c r="AB4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="72"/>
+      <c r="AC4" s="85"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
@@ -3996,16 +4118,16 @@
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
       <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="70"/>
+      <c r="W5" s="87"/>
       <c r="X5" s="67"/>
       <c r="Y5" s="67"/>
       <c r="AA5" s="67"/>
@@ -4036,7 +4158,7 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="9">
@@ -4063,7 +4185,7 @@
         <f>N48</f>
         <v>598.5</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="V6" s="23"/>
@@ -4074,7 +4196,7 @@
         <f>P6</f>
         <v>598.5</v>
       </c>
-      <c r="Y6" s="49" t="s">
+      <c r="Y6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -4109,7 +4231,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="48"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
@@ -4134,16 +4256,17 @@
         <f>N49</f>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Q7" s="54"/>
+      <c r="Q7" s="48"/>
       <c r="V7" s="23"/>
       <c r="W7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="X7" s="6">
-        <f>P7</f>
+        <f t="shared" ref="X6:X11" si="0">P7</f>
         <v>3.369158250998705E-15</v>
       </c>
-      <c r="Y7" s="54"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="8" t="s">
         <v>4</v>
       </c>
@@ -4176,7 +4299,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="49"/>
       <c r="I8" s="9">
         <v>3</v>
       </c>
@@ -4201,15 +4324,17 @@
         <f>N50</f>
         <v>776</v>
       </c>
-      <c r="Q8" s="50"/>
+      <c r="Q8" s="49"/>
       <c r="V8" s="23"/>
       <c r="W8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="X8" s="6">
+        <f t="shared" si="0"/>
         <v>776</v>
       </c>
-      <c r="Y8" s="50"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="17"/>
       <c r="AA8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4227,13 +4352,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:D11" si="0">RADIANS(C9)</f>
+        <f t="shared" ref="D9:D11" si="1">RADIANS(C9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -4279,7 +4404,7 @@
         <v>47</v>
       </c>
       <c r="X9" s="6">
-        <f>P9</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="Y9" s="6">
@@ -4303,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6">
         <v>90</v>
@@ -4355,13 +4480,14 @@
         <v>48</v>
       </c>
       <c r="X10" s="6">
-        <f>P10</f>
+        <f t="shared" si="0"/>
         <v>7.0195835743237771E-15</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" ref="Y10:Y11" si="1">RADIANS(X10)</f>
+        <f t="shared" ref="Y10:Y11" si="2">RADIANS(X10)</f>
         <v>1.22514845490862E-16</v>
       </c>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4385,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -4431,11 +4557,11 @@
         <v>46</v>
       </c>
       <c r="X11" s="6">
-        <f>P11</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -4459,70 +4585,70 @@
       <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="G14" s="61" t="s">
+      <c r="C14" s="71"/>
+      <c r="G14" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="L14" s="61" t="s">
+      <c r="H14" s="71"/>
+      <c r="L14" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="71"/>
       <c r="V14" s="23"/>
-      <c r="X14" s="61" t="s">
+      <c r="X14" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="61"/>
-      <c r="AC14" s="61" t="s">
+      <c r="Y14" s="71"/>
+      <c r="AC14" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" s="61"/>
-      <c r="AH14" s="61" t="s">
+      <c r="AD14" s="71"/>
+      <c r="AH14" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="AI14" s="61"/>
+      <c r="AI14" s="71"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="F15" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="K15" s="62" t="s">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="K15" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="62" t="s">
+      <c r="W15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AB15" s="62" t="s">
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AB15" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AG15" s="62" t="s">
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AG15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -4588,19 +4714,19 @@
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="6">
-        <f t="shared" ref="AB16:AE19" si="2">F32</f>
+        <f t="shared" ref="AB16:AE19" si="3">F32</f>
         <v>1</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="17"/>
@@ -4685,19 +4811,19 @@
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF17" s="17"/>
@@ -4780,19 +4906,19 @@
       </c>
       <c r="AA18" s="17"/>
       <c r="AB18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF18" s="17"/>
@@ -4865,19 +4991,19 @@
       </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF19" s="17"/>
@@ -4902,70 +5028,70 @@
       <c r="V21" s="23"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="G22" s="61" t="s">
+      <c r="C22" s="71"/>
+      <c r="G22" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="L22" s="61" t="s">
+      <c r="H22" s="71"/>
+      <c r="L22" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="61"/>
+      <c r="M22" s="71"/>
       <c r="V22" s="23"/>
-      <c r="X22" s="61" t="s">
+      <c r="X22" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="61"/>
-      <c r="AC22" s="61" t="s">
+      <c r="Y22" s="71"/>
+      <c r="AC22" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="AD22" s="61"/>
-      <c r="AH22" s="61" t="s">
+      <c r="AD22" s="71"/>
+      <c r="AH22" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AI22" s="61"/>
+      <c r="AI22" s="71"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="F23" s="62" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="F23" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="K23" s="62" t="s">
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="K23" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="62" t="s">
+      <c r="W23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AB23" s="62" t="s">
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AB23" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AG23" s="62" t="s">
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AG23" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -5194,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V26" s="23"/>
       <c r="W26" s="21">
@@ -5319,66 +5445,66 @@
       <c r="V29" s="23"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="G30" s="61" t="s">
+      <c r="C30" s="71"/>
+      <c r="G30" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="L30" s="61" t="s">
+      <c r="H30" s="71"/>
+      <c r="L30" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="61"/>
+      <c r="M30" s="71"/>
       <c r="V30" s="23"/>
-      <c r="X30" s="61" t="s">
+      <c r="X30" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="61"/>
-      <c r="AC30" s="61" t="s">
+      <c r="Y30" s="71"/>
+      <c r="AC30" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="AD30" s="61"/>
-      <c r="AH30" s="61" t="s">
+      <c r="AD30" s="71"/>
+      <c r="AH30" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="61"/>
+      <c r="AI30" s="71"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="F31" s="62" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="F31" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="62" t="s">
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="K31" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
       <c r="V31" s="23"/>
-      <c r="X31" s="61" t="s">
+      <c r="X31" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="Y31" s="61"/>
-      <c r="AC31" s="61" t="s">
+      <c r="Y31" s="71"/>
+      <c r="AC31" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="61"/>
-      <c r="AG31" s="62" t="s">
+      <c r="AD31" s="71"/>
+      <c r="AG31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -5634,10 +5760,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="23"/>
-      <c r="X35" s="61" t="s">
+      <c r="X35" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" s="61"/>
+      <c r="Y35" s="71"/>
       <c r="AC35" s="8" t="s">
         <v>89</v>
       </c>
@@ -5660,10 +5786,10 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="V36" s="23"/>
-      <c r="X36" s="62" t="s">
+      <c r="X36" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="Y36" s="62"/>
+      <c r="Y36" s="70"/>
       <c r="AC36" s="12" t="s">
         <v>81</v>
       </c>
@@ -5689,18 +5815,18 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="G38" s="61" t="s">
+      <c r="C38" s="71"/>
+      <c r="G38" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="L38" s="61" t="s">
+      <c r="H38" s="71"/>
+      <c r="L38" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="61"/>
+      <c r="M38" s="71"/>
       <c r="V38" s="23"/>
       <c r="X38" s="6">
         <f>(AJ24*COS(-Y32))-AJ25*SIN(-Y32)</f>
@@ -5719,24 +5845,24 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="F39" s="62" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="F39" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="K39" s="62" t="s">
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="K39" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
       <c r="V39" s="23"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
@@ -5753,6 +5879,7 @@
       <c r="D40" s="6">
         <v>23.500000000000039</v>
       </c>
+      <c r="E40" s="17"/>
       <c r="F40" s="6">
         <f t="array" ref="F40:I43">MMULT(A40:D43,A24:D27)</f>
         <v>6.1257422745431001E-17</v>
@@ -5766,6 +5893,7 @@
       <c r="I40" s="6">
         <v>23.500000000000039</v>
       </c>
+      <c r="J40" s="17"/>
       <c r="K40" s="6">
         <f t="array" ref="K40:N43">MMULT(F40:I43,F24:I27)</f>
         <v>6.1257422745431001E-17</v>
@@ -5794,6 +5922,7 @@
       <c r="D41" s="6">
         <v>-3.981732478453015E-14</v>
       </c>
+      <c r="E41" s="17"/>
       <c r="F41" s="6">
         <v>6.1257422745431001E-17</v>
       </c>
@@ -5806,6 +5935,7 @@
       <c r="I41" s="6">
         <v>-3.981732478453015E-14</v>
       </c>
+      <c r="J41" s="17"/>
       <c r="K41" s="6">
         <v>6.1257422745431001E-17</v>
       </c>
@@ -5819,18 +5949,18 @@
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="V41" s="23"/>
-      <c r="X41" s="61" t="s">
+      <c r="X41" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" s="61"/>
-      <c r="AC41" s="61" t="s">
+      <c r="Y41" s="71"/>
+      <c r="AC41" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="AD41" s="61"/>
-      <c r="AH41" s="61" t="s">
+      <c r="AD41" s="71"/>
+      <c r="AH41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="AI41" s="61"/>
+      <c r="AI41" s="71"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -5845,6 +5975,7 @@
       <c r="D42" s="6">
         <v>841</v>
       </c>
+      <c r="E42" s="17"/>
       <c r="F42" s="6">
         <v>-1</v>
       </c>
@@ -5857,6 +5988,7 @@
       <c r="I42" s="6">
         <v>841</v>
       </c>
+      <c r="J42" s="17"/>
       <c r="K42" s="6">
         <v>-1</v>
       </c>
@@ -5870,24 +6002,24 @@
         <v>841</v>
       </c>
       <c r="V42" s="23"/>
-      <c r="W42" s="62" t="s">
+      <c r="W42" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AB42" s="62" t="s">
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AB42" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AG42" s="62" t="s">
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="70"/>
+      <c r="AG42" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -5902,6 +6034,7 @@
       <c r="D43" s="6">
         <v>1</v>
       </c>
+      <c r="E43" s="17"/>
       <c r="F43" s="6">
         <v>0</v>
       </c>
@@ -5914,6 +6047,7 @@
       <c r="I43" s="6">
         <v>1</v>
       </c>
+      <c r="J43" s="17"/>
       <c r="K43" s="6">
         <v>0</v>
       </c>
@@ -6072,18 +6206,18 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="G46" s="61" t="s">
+      <c r="C46" s="71"/>
+      <c r="G46" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="61"/>
-      <c r="L46" s="61" t="s">
+      <c r="H46" s="71"/>
+      <c r="L46" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="61"/>
+      <c r="M46" s="71"/>
       <c r="V46" s="23"/>
       <c r="W46" s="21">
         <v>0</v>
@@ -6125,24 +6259,24 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="F47" s="62" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="F47" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="K47" s="62" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="K47" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
       <c r="V47" s="23"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
@@ -6225,22 +6359,22 @@
         <v>3.369158250998705E-15</v>
       </c>
       <c r="V49" s="23"/>
-      <c r="X49" s="61" t="s">
+      <c r="X49" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="Y49" s="61"/>
-      <c r="AB49" s="61" t="s">
+      <c r="Y49" s="71"/>
+      <c r="AB49" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AG49" s="61" t="s">
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AG49" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="71"/>
+      <c r="AJ49" s="71"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -6280,24 +6414,24 @@
         <v>776</v>
       </c>
       <c r="V50" s="23"/>
-      <c r="W50" s="62" t="s">
+      <c r="W50" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AB50" s="62" t="s">
+      <c r="X50" s="70"/>
+      <c r="Y50" s="70"/>
+      <c r="Z50" s="70"/>
+      <c r="AB50" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AG50" s="62" t="s">
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="70"/>
+      <c r="AE50" s="70"/>
+      <c r="AG50" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
+      <c r="AH50" s="70"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="70"/>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -6515,191 +6649,191 @@
       <c r="AE55" s="18"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="80"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="80"/>
-      <c r="AK56" s="80"/>
-      <c r="AL56" s="80"/>
-      <c r="AM56" s="80"/>
-      <c r="AN56" s="80"/>
-      <c r="AO56" s="80"/>
-      <c r="AP56" s="80"/>
-      <c r="AQ56" s="80"/>
-      <c r="AR56" s="80"/>
-      <c r="AS56" s="80"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="78"/>
+      <c r="AB56" s="78"/>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="78"/>
+      <c r="AE56" s="78"/>
+      <c r="AF56" s="78"/>
+      <c r="AG56" s="78"/>
+      <c r="AH56" s="78"/>
+      <c r="AI56" s="78"/>
+      <c r="AJ56" s="78"/>
+      <c r="AK56" s="78"/>
+      <c r="AL56" s="78"/>
+      <c r="AM56" s="78"/>
+      <c r="AN56" s="78"/>
+      <c r="AO56" s="78"/>
+      <c r="AP56" s="78"/>
+      <c r="AQ56" s="78"/>
+      <c r="AR56" s="78"/>
+      <c r="AS56" s="78"/>
     </row>
     <row r="57" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="75"/>
       <c r="V57" s="23"/>
-      <c r="W57" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="73"/>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="73"/>
-      <c r="AE57" s="73"/>
-      <c r="AF57" s="73"/>
-      <c r="AG57" s="73"/>
-      <c r="AH57" s="73"/>
-      <c r="AI57" s="73"/>
-      <c r="AJ57" s="73"/>
-      <c r="AK57" s="73"/>
-      <c r="AL57" s="73"/>
-      <c r="AM57" s="73"/>
-      <c r="AN57" s="73"/>
-      <c r="AO57" s="73"/>
-      <c r="AP57" s="73"/>
-      <c r="AQ57" s="73"/>
-      <c r="AR57" s="73"/>
-      <c r="AS57" s="73"/>
+      <c r="W57" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75"/>
+      <c r="Z57" s="75"/>
+      <c r="AA57" s="75"/>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="75"/>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
+      <c r="AH57" s="75"/>
+      <c r="AI57" s="75"/>
+      <c r="AJ57" s="75"/>
+      <c r="AK57" s="75"/>
+      <c r="AL57" s="75"/>
+      <c r="AM57" s="75"/>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="75"/>
+      <c r="AP57" s="75"/>
+      <c r="AQ57" s="75"/>
+      <c r="AR57" s="75"/>
+      <c r="AS57" s="75"/>
     </row>
     <row r="58" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="76"/>
       <c r="V58" s="23"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="36"/>
-      <c r="AM58" s="36"/>
-      <c r="AN58" s="36"/>
-      <c r="AO58" s="36"/>
-      <c r="AP58" s="36"/>
-      <c r="AQ58" s="36"/>
-      <c r="AR58" s="36"/>
-      <c r="AS58" s="36"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+      <c r="AF58" s="68"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="68"/>
+      <c r="AJ58" s="68"/>
+      <c r="AK58" s="68"/>
+      <c r="AL58" s="68"/>
+      <c r="AM58" s="68"/>
+      <c r="AN58" s="68"/>
+      <c r="AO58" s="68"/>
+      <c r="AP58" s="68"/>
+      <c r="AQ58" s="68"/>
+      <c r="AR58" s="68"/>
+      <c r="AS58" s="68"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="F59" s="55" t="s">
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="F59" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="K59" s="81" t="s">
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="K59" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
       <c r="V59" s="23"/>
-      <c r="W59" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="AA59" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB59" s="55"/>
+      <c r="W59" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="AA59" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB59" s="61"/>
     </row>
     <row r="60" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="66" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" ref="B60:B62" si="3">M32</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="76" t="s">
+        <f t="shared" ref="B60:B62" si="4">M32</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="66" t="s">
         <v>111</v>
       </c>
       <c r="D60" s="6">
@@ -6743,34 +6877,34 @@
         <v>0</v>
       </c>
       <c r="V60" s="23"/>
-      <c r="W60" s="68" t="s">
+      <c r="W60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="X60" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y60" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA60" s="68" t="s">
+      <c r="X60" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y60" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AB60" s="83" t="s">
+      <c r="AB60" s="69" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C61" s="77"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="72"/>
       <c r="D61" s="6">
         <f>M41</f>
         <v>1</v>
       </c>
-      <c r="F61" s="76" t="s">
+      <c r="F61" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6">
@@ -6782,7 +6916,7 @@
         <v>585</v>
       </c>
       <c r="I61" s="25">
-        <f t="shared" ref="I61:I69" si="4">B60</f>
+        <f t="shared" ref="I61:I69" si="5">B60</f>
         <v>0</v>
       </c>
       <c r="K61" s="6">
@@ -6809,24 +6943,24 @@
         <v>0</v>
       </c>
       <c r="V61" s="23"/>
-      <c r="W61" s="68"/>
+      <c r="W61" s="65"/>
       <c r="X61" s="67"/>
       <c r="Y61" s="67"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
+      <c r="AA61" s="65"/>
+      <c r="AB61" s="65"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C62" s="78"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="6">
         <f>M42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="F62" s="77"/>
+      <c r="F62" s="72"/>
       <c r="G62" s="6">
         <f>N49-B73</f>
         <v>3.369158250998705E-15</v>
@@ -6836,7 +6970,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K62" s="6">
@@ -6877,26 +7011,26 @@
         <v>3</v>
       </c>
       <c r="AB62" s="3" t="str">
-        <f t="shared" ref="AB62:AB67" si="5">IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
+        <f t="shared" ref="AB62:AB67" si="6">IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
         <v>N</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="66" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="6">
         <f>C40</f>
         <v>0</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="66" t="s">
         <v>112</v>
       </c>
       <c r="D63" s="6">
         <f>C48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F63" s="78"/>
+      <c r="F63" s="73"/>
       <c r="G63" s="6">
         <f>N50-B74</f>
         <v>585</v>
@@ -6906,7 +7040,7 @@
         <v>-575</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K63" s="6">
@@ -6947,22 +7081,22 @@
         <v>4</v>
       </c>
       <c r="AB63" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
     </row>
     <row r="64" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="77"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="6">
         <f>C41</f>
         <v>1</v>
       </c>
-      <c r="C64" s="77"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="6">
         <f>C49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F64" s="76" t="s">
+      <c r="F64" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="6">
@@ -6974,7 +7108,7 @@
         <v>-65</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
@@ -7015,22 +7149,22 @@
         <v>5</v>
       </c>
       <c r="AB64" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="6">
         <f>C42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C65" s="78"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="6">
         <f>C50</f>
         <v>-1</v>
       </c>
-      <c r="F65" s="77"/>
+      <c r="F65" s="72"/>
       <c r="G65" s="6">
         <f>N49-B76</f>
         <v>4.3186483035528855E-14</v>
@@ -7040,7 +7174,7 @@
         <v>3.5223018078622825E-14</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K65" s="6">
@@ -7081,26 +7215,26 @@
         <v>6</v>
       </c>
       <c r="AB65" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="66" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="6">
         <f>H40</f>
         <v>1</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="66" t="s">
         <v>117</v>
       </c>
       <c r="D66" s="6">
         <f>H48</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F66" s="78"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="6">
         <f>N50-B77</f>
         <v>-65</v>
@@ -7110,7 +7244,7 @@
         <v>-575</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V66" s="23"/>
@@ -7127,22 +7261,22 @@
         <v>7</v>
       </c>
       <c r="AB66" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="77"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="6">
         <f>H41</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C67" s="77"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="6">
         <f>H49</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="F67" s="76" t="s">
+      <c r="F67" s="66" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="6">
@@ -7154,7 +7288,7 @@
         <v>-3.9817324784530174E-15</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V67" s="23"/>
@@ -7171,22 +7305,22 @@
         <v>8</v>
       </c>
       <c r="AB67" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="6">
         <f>H42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C68" s="78"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="6">
         <f>H50</f>
         <v>-1</v>
       </c>
-      <c r="F68" s="77"/>
+      <c r="F68" s="72"/>
       <c r="G68" s="6">
         <f>N49-B79</f>
         <v>4.3186483035528855E-14</v>
@@ -7196,17 +7330,17 @@
         <v>65.000000000000028</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M68" s="81" t="s">
+      <c r="M68" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="N68" s="81"/>
+      <c r="N68" s="45"/>
       <c r="V68" s="23"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F69" s="78"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="6">
         <f>N50-B80</f>
         <v>-65</v>
@@ -7216,7 +7350,7 @@
         <v>7.9634649569060301E-15</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="M69" s="27" t="str">
@@ -7230,7 +7364,7 @@
       <c r="V69" s="23"/>
     </row>
     <row r="70" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="76" t="s">
+      <c r="F70" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="6">
@@ -7242,24 +7376,24 @@
         <v>-65</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" ref="I70:I78" si="6">D60</f>
+        <f t="shared" ref="I70:I78" si="7">D60</f>
         <v>0</v>
       </c>
       <c r="V70" s="23"/>
-      <c r="W70" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="X70" s="81"/>
-      <c r="Y70" s="81"/>
+      <c r="W70" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="F71" s="77"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="F71" s="72"/>
       <c r="G71" s="6">
         <f>N49-D73</f>
         <v>7.9634649569060301E-15</v>
@@ -7269,36 +7403,36 @@
         <v>0</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V71" s="23"/>
-      <c r="W71" s="68" t="s">
+      <c r="W71" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="X71" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y71" s="68" t="s">
-        <v>176</v>
+      <c r="X71" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y71" s="65" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="66" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" ref="B72:B74" si="7">N32</f>
+        <f t="shared" ref="B72:B74" si="8">N32</f>
         <v>23.5</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C72" s="66" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" ref="D72:D74" si="8">N40</f>
+        <f t="shared" ref="D72:D74" si="9">N40</f>
         <v>598.5</v>
       </c>
-      <c r="F72" s="78"/>
+      <c r="F72" s="73"/>
       <c r="G72" s="6">
         <f>N50-D74</f>
         <v>-65</v>
@@ -7308,26 +7442,26 @@
         <v>0</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V72" s="23"/>
-      <c r="W72" s="68"/>
-      <c r="X72" s="68"/>
-      <c r="Y72" s="68"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
     </row>
     <row r="73" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="77"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="77"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="72"/>
       <c r="D73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F73" s="76" t="s">
+      <c r="F73" s="66" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="6">
@@ -7339,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="V73" s="23"/>
@@ -7347,24 +7481,24 @@
         <v>3</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
-      <c r="C74" s="78"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>841</v>
       </c>
-      <c r="F74" s="77"/>
+      <c r="F74" s="72"/>
       <c r="G74" s="6">
         <f>N49-D76</f>
         <v>7.9634649569060301E-15</v>
@@ -7374,7 +7508,7 @@
         <v>7.9634649569060301E-15</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="O74"/>
@@ -7383,28 +7517,28 @@
         <v>4</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="66" t="s">
         <v>109</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" ref="B75:B77" si="9">D40</f>
+        <f t="shared" ref="B75:B77" si="10">D40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="66" t="s">
         <v>112</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" ref="D75:D77" si="10">D48</f>
+        <f t="shared" ref="D75:D77" si="11">D48</f>
         <v>598.5</v>
       </c>
-      <c r="F75" s="78"/>
+      <c r="F75" s="73"/>
       <c r="G75" s="6">
         <f>N50-D77</f>
         <v>-65</v>
@@ -7414,7 +7548,7 @@
         <v>9.756426787672363E-31</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="V75" s="23"/>
@@ -7422,24 +7556,24 @@
         <v>5</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="77"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C76" s="77"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F76" s="76" t="s">
+      <c r="F76" s="66" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="6">
@@ -7451,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="R76"/>
@@ -7460,24 +7594,24 @@
         <v>6</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y76" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="6">
-        <f t="shared" si="9"/>
-        <v>841</v>
-      </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="6">
         <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="F77" s="77"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="6">
+        <f t="shared" si="11"/>
+        <v>841</v>
+      </c>
+      <c r="F77" s="72"/>
       <c r="G77" s="6">
         <f>N49-D79</f>
         <v>0</v>
@@ -7487,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="V77" s="23"/>
@@ -7495,28 +7629,28 @@
         <v>7</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="66" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" ref="B78:B80" si="11">I40</f>
+        <f t="shared" ref="B78:B80" si="12">I40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C78" s="66" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" ref="D78:D80" si="12">I48</f>
+        <f t="shared" ref="D78:D80" si="13">I48</f>
         <v>598.5</v>
       </c>
-      <c r="F78" s="78"/>
+      <c r="F78" s="73"/>
       <c r="G78" s="6">
         <f>N50-D80</f>
         <v>0</v>
@@ -7526,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="V78" s="23"/>
@@ -7534,34 +7668,34 @@
         <v>8</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y78" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A79" s="77"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C79" s="77"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="6">
+        <f t="shared" si="13"/>
+        <v>3.369158250998705E-15</v>
+      </c>
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="73"/>
+      <c r="B80" s="6">
         <f t="shared" si="12"/>
-        <v>3.369158250998705E-15</v>
-      </c>
-      <c r="V79" s="23"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
-      <c r="B80" s="6">
-        <f t="shared" si="11"/>
         <v>841</v>
       </c>
-      <c r="C80" s="78"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>776</v>
       </c>
       <c r="V80" s="23"/>
@@ -7577,18 +7711,99 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="Y71:Y72"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W58:AS58"/>
-    <mergeCell ref="AA60:AA61"/>
-    <mergeCell ref="AB60:AB61"/>
-    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="W1:AS1"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="W2:AS2"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="W57:AS57"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A56:AS56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="L46:M46"/>
@@ -7613,99 +7828,18 @@
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="W2:AS2"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="W57:AS57"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A56:AS56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="W1:AS1"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="Y71:Y72"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W58:AS58"/>
+    <mergeCell ref="AA60:AA61"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AA59:AB59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7714,4 +7848,1097 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A61F0-470D-4457-BD64-2433520B0408}">
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="19" max="19" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="R2" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="92"/>
+      <c r="B3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
+        <v>853.5</v>
+      </c>
+      <c r="C4" s="88">
+        <v>215.5</v>
+      </c>
+      <c r="D4" s="88">
+        <v>481.9</v>
+      </c>
+      <c r="E4" s="88">
+        <v>853.5</v>
+      </c>
+      <c r="F4" s="88">
+        <v>215.5</v>
+      </c>
+      <c r="G4" s="88">
+        <f>D4-15</f>
+        <v>466.9</v>
+      </c>
+      <c r="H4" s="88">
+        <f>B4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="88">
+        <f>C4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="88">
+        <f>D4-G4</f>
+        <v>15</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="15">
+        <f>0-K4</f>
+        <v>-0.02</v>
+      </c>
+      <c r="M4" s="44"/>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N13" si="0">POWER(L4, 2)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O4" s="95">
+        <f>SUM(L4:L13)/10</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P4" s="95">
+        <f>SUM(N4:N13)/10</f>
+        <v>0.12434000000000001</v>
+      </c>
+      <c r="R4" s="15">
+        <f>L4-O4</f>
+        <v>-0.186</v>
+      </c>
+      <c r="S4" s="40">
+        <f>R4^2</f>
+        <v>3.4596000000000002E-2</v>
+      </c>
+      <c r="T4" s="47">
+        <f>SQRT(SUM(S4:S13)/10)</f>
+        <v>0.31110126968561219</v>
+      </c>
+      <c r="V4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="15">
+        <v>-0.26</v>
+      </c>
+      <c r="L5" s="15">
+        <f>0-K5</f>
+        <v>0.26</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7600000000000007E-2</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="R5" s="15">
+        <f>L5-O4</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="S5" s="40">
+        <f t="shared" ref="S5:S13" si="1">R5^2</f>
+        <v>8.8360000000000001E-3</v>
+      </c>
+      <c r="T5" s="48"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="15">
+        <v>-0.46</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" ref="L6:L13" si="2">0-K6</f>
+        <v>0.46</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="R6" s="15">
+        <f>L6-O4</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="S6" s="40">
+        <f t="shared" si="1"/>
+        <v>8.6436000000000027E-2</v>
+      </c>
+      <c r="T6" s="48"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="15">
+        <v>-0.47</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.47</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22089999999999999</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="R7" s="15">
+        <f>L7-O4</f>
+        <v>0.30399999999999994</v>
+      </c>
+      <c r="S7" s="40">
+        <f t="shared" si="1"/>
+        <v>9.2415999999999957E-2</v>
+      </c>
+      <c r="T7" s="48"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="15">
+        <v>-0.42</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+      <c r="M8" s="44"/>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17639999999999997</v>
+      </c>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="R8" s="15">
+        <f>L8-O4</f>
+        <v>0.254</v>
+      </c>
+      <c r="S8" s="40">
+        <f t="shared" si="1"/>
+        <v>6.4516000000000004E-2</v>
+      </c>
+      <c r="T8" s="48"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="15">
+        <v>-0.51</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2601</v>
+      </c>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="R9" s="15">
+        <f>L9-O4</f>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="S9" s="40">
+        <f t="shared" si="1"/>
+        <v>0.11833599999999998</v>
+      </c>
+      <c r="T9" s="48"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="44"/>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="R10" s="15">
+        <f>L10-O4</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="40">
+        <f t="shared" si="1"/>
+        <v>1.1560000000000001E-3</v>
+      </c>
+      <c r="T10" s="48"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="15">
+        <v>-0.08</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="R11" s="15">
+        <f>L11-O4</f>
+        <v>-8.6000000000000007E-2</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="1"/>
+        <v>7.3960000000000015E-3</v>
+      </c>
+      <c r="T11" s="48"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.34</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11560000000000002</v>
+      </c>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="R12" s="15">
+        <f>L12-O4</f>
+        <v>-0.50600000000000001</v>
+      </c>
+      <c r="S12" s="40">
+        <f t="shared" si="1"/>
+        <v>0.25603599999999999</v>
+      </c>
+      <c r="T12" s="48"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.38</v>
+      </c>
+      <c r="M13" s="44"/>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1444</v>
+      </c>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="R13" s="15">
+        <f>L13-O4</f>
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="S13" s="40">
+        <f t="shared" si="1"/>
+        <v>0.29811600000000005</v>
+      </c>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="R17" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="91"/>
+      <c r="B18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="88">
+        <v>0</v>
+      </c>
+      <c r="C19" s="88">
+        <v>0</v>
+      </c>
+      <c r="D19" s="88">
+        <v>0</v>
+      </c>
+      <c r="E19" s="88">
+        <v>0</v>
+      </c>
+      <c r="F19" s="88">
+        <v>0</v>
+      </c>
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+      <c r="H19" s="88">
+        <f>B19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="88">
+        <f>C19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="88">
+        <f>D19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <f>0-K19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19:N28" si="3">POWER(L19, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="95">
+        <f>SUM(L19:L28)/10</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="95">
+        <f>SUM(N19:N28)/10</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <f>L19-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="40">
+        <f>R19^2</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="47">
+        <f>SQRT(SUM(S19:S28)/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" ref="L20:L28" si="4">0-K20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="R20" s="15">
+        <f>L20-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="40">
+        <f t="shared" ref="S20:S28" si="5">R20^2</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="48"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="R21" s="15">
+        <f>L21-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="48"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="R22" s="15">
+        <f>L22-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="48"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="R23" s="15">
+        <f>L23-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="48"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="R24" s="15">
+        <f>L24-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="48"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="R25" s="15">
+        <f>L25-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="48"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="42"/>
+      <c r="N26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="R26" s="15">
+        <f>L26-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="48"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="R27" s="15">
+        <f>L27-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="48"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="42"/>
+      <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="R28" s="15">
+        <f>L28-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="P19:P28"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="T19:T28"/>
+    <mergeCell ref="T4:T13"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="H19:H28"/>
+    <mergeCell ref="I19:I28"/>
+    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="P4:P13"/>
+    <mergeCell ref="O4:O13"/>
+    <mergeCell ref="O19:O28"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="J4:J13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Breakdown/Excel/Arm Info.xlsx
+++ b/Breakdown/Excel/Arm Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\7. TUGAS AKHIR\Arm Manipulator\Breakdown\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5E3D3-A78B-4E7E-82C2-9A804415FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8939F-FF60-4687-A875-395C3C275AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{313879A8-645A-4312-965B-79C9BD650931}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,6 +1199,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,6 +1226,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1226,20 +1253,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1247,25 +1268,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1274,59 +1337,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1337,41 +1373,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,9 +1410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>221674</xdr:colOff>
+      <xdr:colOff>208339</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>148560</xdr:rowOff>
+      <xdr:rowOff>137130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,9 +1459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>745880</xdr:colOff>
+      <xdr:colOff>742070</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1499,7 +1508,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>703637</xdr:colOff>
+      <xdr:colOff>707447</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -1548,9 +1557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>817418</xdr:colOff>
+      <xdr:colOff>821228</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>23842</xdr:rowOff>
+      <xdr:rowOff>20032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,7 +1654,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>250522</xdr:colOff>
+      <xdr:colOff>246712</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1694,9 +1703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>472710</xdr:colOff>
+      <xdr:colOff>476520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15784</xdr:rowOff>
+      <xdr:rowOff>19594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1738,9 +1747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>434884</xdr:colOff>
+      <xdr:colOff>438694</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>60959</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>515051</xdr:colOff>
+      <xdr:colOff>511241</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,55 +1823,6 @@
         <a:xfrm>
           <a:off x="34706737" y="2896326"/>
           <a:ext cx="1803289" cy="837474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>178213</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>245710</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5327112-DC07-2572-ACA8-5C3B4297125D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12446413" y="6277841"/>
-          <a:ext cx="2700207" cy="3532909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1961,9 +1921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>213208</xdr:colOff>
+      <xdr:colOff>209398</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>21972</xdr:rowOff>
+      <xdr:rowOff>18162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1979,7 +1939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2010,9 +1970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>511275</xdr:colOff>
+      <xdr:colOff>515085</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>55788</xdr:rowOff>
+      <xdr:rowOff>59598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2028,7 +1988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2059,9 +2019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>594009</xdr:colOff>
+      <xdr:colOff>590199</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>97427</xdr:rowOff>
+      <xdr:rowOff>93617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2077,7 +2037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2103,9 +2063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>401783</xdr:colOff>
+      <xdr:colOff>397973</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>32904</xdr:rowOff>
+      <xdr:rowOff>21474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2121,7 +2081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2139,6 +2099,59 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163811</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>286617</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>41562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61C91C3-CB58-CBE8-0952-8789459B575E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect l="1227" t="2292" r="1687"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12577484" y="6169346"/>
+          <a:ext cx="2773353" cy="3334871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2465,32 +2478,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="J1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="O1" s="45" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="O1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3006,16 +3019,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3060,10 +3073,10 @@
         <f>ABS(D3-C3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="50">
         <v>5</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="53">
         <f>MAX(E3:E8)</f>
         <v>50</v>
       </c>
@@ -3089,8 +3102,8 @@
         <f t="shared" ref="E4:E8" si="0">ABS(D4-C4)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="3">
         <f>F3*(E4/G3)</f>
         <v>1.5</v>
@@ -3113,8 +3126,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="3">
         <f>F3*(E5/G3)</f>
         <v>4</v>
@@ -3137,8 +3150,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="3">
         <f>F3*(E6/G3)</f>
         <v>2</v>
@@ -3161,8 +3174,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="3">
         <f>F3*(E7/G3)</f>
         <v>5</v>
@@ -3185,8 +3198,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="3">
         <f>F3*(E8/G3)</f>
         <v>1.5</v>
@@ -3228,24 +3241,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="28"/>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3292,10 +3305,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -3304,20 +3317,20 @@
       <c r="D3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="50">
         <v>20</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="50">
         <v>3</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="50">
         <v>6</v>
       </c>
       <c r="H3" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>165</v>
       </c>
       <c r="K3" s="3">
@@ -3339,22 +3352,22 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="K4" s="3">
         <v>2</v>
       </c>
@@ -3374,22 +3387,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="57"/>
       <c r="K5" s="3">
         <v>3</v>
       </c>
@@ -3409,22 +3422,22 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="3">
         <f>F3*G3</f>
         <v>18</v>
       </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
@@ -3444,10 +3457,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="50">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="66" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -3456,16 +3469,16 @@
       <c r="D7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="47">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>165</v>
       </c>
       <c r="K7" s="3">
@@ -3487,22 +3500,22 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="3">
         <f>F3*G7</f>
         <v>18</v>
       </c>
-      <c r="I8" s="57"/>
+      <c r="I8" s="55"/>
       <c r="K8" s="3">
         <v>6</v>
       </c>
@@ -3522,104 +3535,104 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="50">
         <v>3</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="47">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50">
         <v>6</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="50">
         <f>F3*G9</f>
         <v>18</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="27">
         <f>SUM(M3:M7)</f>
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="57"/>
-      <c r="K10" s="51" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="55"/>
+      <c r="K10" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="27">
         <f>SUM(O3:O7)</f>
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="58">
         <v>4</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="47">
-        <v>1</v>
-      </c>
-      <c r="H11" s="47">
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50">
+        <v>1</v>
+      </c>
+      <c r="H11" s="50">
         <f>G11*F3</f>
         <v>3</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="57"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54">
+      <c r="A13" s="58">
         <v>5</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -3628,8 +3641,8 @@
       <c r="D13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="3">
         <v>1</v>
       </c>
@@ -3637,21 +3650,21 @@
         <f>G13*F3</f>
         <v>3</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="3">
         <v>2</v>
       </c>
@@ -3659,13 +3672,13 @@
         <f>G14*F3</f>
         <v>6</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="54">
+      <c r="A15" s="58">
         <v>6</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="59" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="32" t="s">
@@ -3674,80 +3687,80 @@
       <c r="D15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47">
+      <c r="E15" s="51"/>
+      <c r="F15" s="50">
         <v>8</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="50">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>G15*F15</f>
         <v>8</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="3">
         <f>F15*G15</f>
         <v>8</v>
       </c>
-      <c r="I16" s="56"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="3">
         <f>F15*G15</f>
         <v>8</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="3">
         <f>F15*G15</f>
         <v>8</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="54">
+      <c r="A19" s="58">
         <v>7</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>162</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -3756,44 +3769,44 @@
       <c r="D19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47">
+      <c r="E19" s="51"/>
+      <c r="F19" s="50">
         <v>8</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="50">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f>F19*G19</f>
         <v>8</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="3">
         <f>G19*F19</f>
         <v>8</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="54">
+      <c r="A21" s="58">
         <v>8</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -3802,55 +3815,57 @@
       <c r="D21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47">
+      <c r="E21" s="51"/>
+      <c r="F21" s="50">
         <v>3</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="50">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f>G21*F21</f>
         <v>3</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="3">
         <f>G21*F21</f>
         <v>3</v>
       </c>
-      <c r="I22" s="57"/>
+      <c r="I22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E3:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B9:B10"/>
@@ -3867,22 +3882,20 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E3:E22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3896,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF990D27-4B97-4251-AD4B-2BBC3FAFA5B8}">
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -3911,195 +3924,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
       <c r="V1" s="26"/>
-      <c r="W1" s="75" t="s">
+      <c r="W1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
     </row>
     <row r="2" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
     </row>
     <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="I3" s="77" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="I3" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="O3" s="77" t="s">
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="O3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="77" t="s">
+      <c r="W3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="AA3" s="77" t="s">
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="AA3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
     </row>
     <row r="4" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="79" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="79"/>
+      <c r="I4" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="75" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="23"/>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="82" t="s">
+      <c r="X4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="82" t="s">
+      <c r="AA4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="83" t="s">
+      <c r="AB4" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="85"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
@@ -4118,19 +4131,19 @@
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="AA5" s="67"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="10" t="s">
         <v>30</v>
       </c>
@@ -4158,14 +4171,14 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="50" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <f>D6</f>
+        <f t="shared" ref="J6:J11" si="0">D6</f>
         <v>0</v>
       </c>
       <c r="K6" s="6">
@@ -4183,9 +4196,9 @@
       </c>
       <c r="P6" s="6">
         <f>N48</f>
-        <v>598.5</v>
-      </c>
-      <c r="Q6" s="47" t="s">
+        <v>663.5</v>
+      </c>
+      <c r="Q6" s="50" t="s">
         <v>52</v>
       </c>
       <c r="V6" s="23"/>
@@ -4193,10 +4206,10 @@
         <v>43</v>
       </c>
       <c r="X6" s="6">
-        <f>P6</f>
-        <v>598.5</v>
-      </c>
-      <c r="Y6" s="47" t="s">
+        <f t="shared" ref="X6:X11" si="1">P6</f>
+        <v>663.5</v>
+      </c>
+      <c r="Y6" s="50" t="s">
         <v>52</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -4204,11 +4217,11 @@
       </c>
       <c r="AB6" s="6">
         <f>DEGREES(AC6)</f>
-        <v>-4.3982353222580045E-16</v>
+        <v>-5.8643137630106747E-17</v>
       </c>
       <c r="AC6" s="6">
         <f>Y32</f>
-        <v>-7.6763687650916021E-18</v>
+        <v>-1.0235158353455473E-18</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
@@ -4231,7 +4244,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="51"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
@@ -4254,18 +4267,18 @@
       </c>
       <c r="P7" s="6">
         <f>N49</f>
-        <v>3.369158250998705E-15</v>
-      </c>
-      <c r="Q7" s="48"/>
+        <v>-6.1257422745431001E-16</v>
+      </c>
+      <c r="Q7" s="51"/>
       <c r="V7" s="23"/>
       <c r="W7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="X7" s="6">
-        <f t="shared" ref="X6:X11" si="0">P7</f>
-        <v>3.369158250998705E-15</v>
-      </c>
-      <c r="Y7" s="48"/>
+        <f t="shared" si="1"/>
+        <v>-6.1257422745431001E-16</v>
+      </c>
+      <c r="Y7" s="51"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="8" t="s">
         <v>4</v>
@@ -4299,7 +4312,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="52"/>
       <c r="I8" s="9">
         <v>3</v>
       </c>
@@ -4322,18 +4335,18 @@
       </c>
       <c r="P8" s="6">
         <f>N50</f>
-        <v>776</v>
-      </c>
-      <c r="Q8" s="49"/>
+        <v>841</v>
+      </c>
+      <c r="Q8" s="52"/>
       <c r="V8" s="23"/>
       <c r="W8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" si="0"/>
-        <v>776</v>
-      </c>
-      <c r="Y8" s="49"/>
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="8" t="s">
         <v>5</v>
@@ -4358,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:D11" si="1">RADIANS(C9)</f>
+        <f t="shared" ref="D9:D11" si="2">RADIANS(C9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -4375,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="6">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
@@ -4393,34 +4406,34 @@
       </c>
       <c r="P9" s="6">
         <f>DEGREES(Q9)</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="6">
         <f>ATAN2(K48/COS(Q10),K49/COS(Q10))</f>
-        <v>3.1415926535897931</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="V9" s="23"/>
       <c r="W9" s="11" t="s">
         <v>47</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="Y9" s="6">
         <f>RADIANS(X9)</f>
-        <v>3.1415926535897931</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AB9" s="6">
         <f>DEGREES(AC9)</f>
-        <v>3.5097917871618874E-15</v>
+        <v>106.58722401468049</v>
       </c>
       <c r="AC9" s="6">
         <f>IF(AC10&gt;0, ATAN2(AI51,AI52),  ATAN2(-AI51,-AI52))</f>
-        <v>6.1257422745430976E-17</v>
+        <v>1.8602979996169433</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
@@ -4431,11 +4444,11 @@
         <v>168</v>
       </c>
       <c r="C10" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
         <f>RADIANS(C10)</f>
-        <v>1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>48</v>
@@ -4452,7 +4465,7 @@
       </c>
       <c r="J10" s="6">
         <f>D10</f>
-        <v>1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="K10" s="6">
         <f>RADIANS(90)</f>
@@ -4469,23 +4482,23 @@
       </c>
       <c r="P10" s="6">
         <f>DEGREES(Q10)</f>
-        <v>7.0195835743237771E-15</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="6">
-        <f>ATAN2(SQRT(L50^2 + M50^2), -K50)</f>
-        <v>1.22514845490862E-16</v>
+        <f>ATAN2(SQRT(K48^2 + K49^2), -K50)</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="V10" s="23"/>
       <c r="W10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" si="0"/>
-        <v>7.0195835743237771E-15</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" ref="Y10:Y11" si="2">RADIANS(X10)</f>
-        <v>1.22514845490862E-16</v>
+        <f t="shared" ref="Y10:Y11" si="3">RADIANS(X10)</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="Z10" s="17"/>
       <c r="AA10" s="8" t="s">
@@ -4493,11 +4506,11 @@
       </c>
       <c r="AB10" s="6">
         <f>DEGREES(AC10)</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="6">
         <f>IF(C10&gt;0,ATAN2(AI53,SQRT(1-AI53^2)), ATAN2(AI53,-SQRT(1-AI53^2)))</f>
-        <v>1.5707963267948966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
@@ -4511,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -4528,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="6">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="6">
@@ -4546,34 +4559,34 @@
       </c>
       <c r="P11" s="6">
         <f>DEGREES(Q11)</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="6">
         <f>ATAN2(M50/COS(Q10),L50/COS(Q10))</f>
-        <v>3.1415926535897931</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="V11" s="23"/>
       <c r="W11" s="11" t="s">
         <v>46</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="3"/>
+        <v>0.78539816339744828</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AB11" s="6">
         <f>DEGREES(AC11)</f>
-        <v>1.0089551829259864E-14</v>
+        <v>-106.58722401468049</v>
       </c>
       <c r="AC11" s="6">
         <f>IF(AC10&gt;0, ATAN2(-AG53,AH53), ATAN2(AG53,-AH53))</f>
-        <v>1.7609589947120138E-16</v>
+        <v>-1.8602979996169433</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -4582,73 +4595,77 @@
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
+      <c r="O13" s="2">
+        <f>COS(Q10)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
       <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="G14" s="71" t="s">
+      <c r="C14" s="68"/>
+      <c r="G14" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="L14" s="71" t="s">
+      <c r="H14" s="68"/>
+      <c r="L14" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="68"/>
       <c r="V14" s="23"/>
-      <c r="X14" s="71" t="s">
+      <c r="X14" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="71"/>
-      <c r="AC14" s="71" t="s">
+      <c r="Y14" s="68"/>
+      <c r="AC14" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" s="71"/>
-      <c r="AH14" s="71" t="s">
+      <c r="AD14" s="68"/>
+      <c r="AH14" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="AI14" s="71"/>
+      <c r="AI14" s="68"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="F15" s="70" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="F15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="K15" s="70" t="s">
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="K15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="70" t="s">
+      <c r="W15" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AB15" s="70" t="s">
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AB15" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AG15" s="70" t="s">
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AG15" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -4698,35 +4715,35 @@
       <c r="V16" s="23"/>
       <c r="W16" s="21">
         <f>COS(RADIANS(X9))*COS(RADIANS(X10))</f>
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="X16" s="6">
         <f>COS(RADIANS(X9))*SIN(RADIANS(X10))*SIN(RADIANS(X11))-SIN(RADIANS(X9))*COS(RADIANS(X11))</f>
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="6">
         <f>COS(RADIANS(X9))*SIN(RADIANS(X10))*COS(RADIANS(X11))+SIN(RADIANS(X9))*SIN(RADIANS(X11))</f>
-        <v>1.2251484549086203E-16</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="6">
         <f>X6</f>
-        <v>598.5</v>
+        <v>663.5</v>
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="6">
-        <f t="shared" ref="AB16:AE19" si="3">F32</f>
+        <f t="shared" ref="AB16:AE19" si="4">F32</f>
         <v>1</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF16" s="17"/>
@@ -4795,7 +4812,7 @@
       <c r="V17" s="23"/>
       <c r="W17" s="21">
         <f>SIN(RADIANS(X9))*COS(RADIANS(X10))</f>
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="X17" s="6">
         <f>SIN(RADIANS(X9))*SIN(RADIANS(X10))*SIN(RADIANS(X11))+COS(RADIANS(X9))*COS(RADIANS(X11))</f>
@@ -4803,27 +4820,27 @@
       </c>
       <c r="Y17" s="6">
         <f>SIN(RADIANS(X9))*SIN(RADIANS(X10))*COS(RADIANS(X11))-COS(RADIANS(X9))*SIN(RADIANS(X11))</f>
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="6">
         <f>X7</f>
-        <v>3.369158250998705E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF17" s="17"/>
@@ -4890,35 +4907,35 @@
       <c r="V18" s="23"/>
       <c r="W18" s="21">
         <f>-SIN(RADIANS(X10))</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="6">
         <f>COS(RADIANS(X10))*SIN(RADIANS(X11))</f>
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="Y18" s="6">
         <f>COS(RADIANS(X10))*COS(RADIANS(X11))</f>
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="Z18" s="6">
         <f>X8</f>
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="AA18" s="17"/>
       <c r="AB18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF18" s="17"/>
@@ -4991,19 +5008,19 @@
       </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF19" s="17"/>
@@ -5028,70 +5045,70 @@
       <c r="V21" s="23"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="G22" s="71" t="s">
+      <c r="C22" s="68"/>
+      <c r="G22" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="L22" s="71" t="s">
+      <c r="H22" s="68"/>
+      <c r="L22" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="71"/>
+      <c r="M22" s="68"/>
       <c r="V22" s="23"/>
-      <c r="X22" s="71" t="s">
+      <c r="X22" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="71"/>
-      <c r="AC22" s="71" t="s">
+      <c r="Y22" s="68"/>
+      <c r="AC22" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AD22" s="71"/>
-      <c r="AH22" s="71" t="s">
+      <c r="AD22" s="68"/>
+      <c r="AH22" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="AI22" s="71"/>
+      <c r="AI22" s="68"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="F23" s="70" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="F23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="K23" s="70" t="s">
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="K23" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="70" t="s">
+      <c r="W23" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AB23" s="70" t="s">
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AB23" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AG23" s="70" t="s">
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="69"/>
+      <c r="AG23" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -5128,15 +5145,15 @@
       </c>
       <c r="K24" s="6">
         <f>COS(J10)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1</v>
       </c>
       <c r="L24" s="6">
         <f>-SIN(J10)*COS(K10)</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6">
         <f>SIN(J10)*SIN(K10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="6">
         <f>M10*COS(J10)</f>
@@ -5145,16 +5162,16 @@
       <c r="V24" s="23"/>
       <c r="W24" s="21">
         <f t="array" ref="W24:Z27">MMULT(W16:Z19,AG16:AJ19)</f>
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="X24" s="6">
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="6">
-        <v>1.2251484549086203E-16</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="6">
-        <v>598.5</v>
+        <v>663.5</v>
       </c>
       <c r="AA24" s="17"/>
       <c r="AB24" s="6">
@@ -5172,13 +5189,13 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="6">
         <f t="array" ref="AG24:AJ27">MMULT(W24:Z27,AB24:AE27)</f>
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="AH24" s="6">
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="6">
-        <v>1.2251484549086203E-16</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="6">
         <v>598.5</v>
@@ -5219,15 +5236,15 @@
       </c>
       <c r="K25" s="6">
         <f>SIN(J10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
         <f>COS(J10)*COS(K10)</f>
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="M25" s="6">
         <f>-COS(J10)*SIN(K10)</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>-1</v>
       </c>
       <c r="N25" s="6">
         <f>M10*SIN(J10)</f>
@@ -5235,16 +5252,16 @@
       </c>
       <c r="V25" s="23"/>
       <c r="W25" s="21">
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="X25" s="6">
         <v>1</v>
       </c>
       <c r="Y25" s="6">
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <v>3.369158250998705E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
       <c r="AA25" s="17"/>
       <c r="AB25" s="6">
@@ -5261,16 +5278,16 @@
       </c>
       <c r="AF25" s="17"/>
       <c r="AG25" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="AH25" s="6">
         <v>1</v>
       </c>
       <c r="AI25" s="6">
-        <v>1.2251484549086198E-16</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="6">
-        <v>-4.5943067059073235E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
@@ -5324,16 +5341,16 @@
       </c>
       <c r="V26" s="23"/>
       <c r="W26" s="21">
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="X26" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="Y26" s="6">
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="Z26" s="6">
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="AA26" s="17"/>
       <c r="AB26" s="6">
@@ -5351,13 +5368,13 @@
       </c>
       <c r="AF26" s="17"/>
       <c r="AG26" s="6">
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="AH26" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>4.3315539021305316E-17</v>
       </c>
       <c r="AI26" s="6">
-        <v>-1</v>
+        <v>4.3315539021305322E-17</v>
       </c>
       <c r="AJ26" s="6">
         <v>841</v>
@@ -5445,66 +5462,66 @@
       <c r="V29" s="23"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="G30" s="71" t="s">
+      <c r="C30" s="68"/>
+      <c r="G30" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="L30" s="71" t="s">
+      <c r="H30" s="68"/>
+      <c r="L30" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="71"/>
+      <c r="M30" s="68"/>
       <c r="V30" s="23"/>
-      <c r="X30" s="71" t="s">
+      <c r="X30" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="71"/>
-      <c r="AC30" s="71" t="s">
+      <c r="Y30" s="68"/>
+      <c r="AC30" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD30" s="71"/>
-      <c r="AH30" s="71" t="s">
+      <c r="AD30" s="68"/>
+      <c r="AH30" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="71"/>
+      <c r="AI30" s="68"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="F31" s="70" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="F31" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="K31" s="70" t="s">
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="K31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
       <c r="V31" s="23"/>
-      <c r="X31" s="71" t="s">
+      <c r="X31" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="Y31" s="71"/>
-      <c r="AC31" s="71" t="s">
+      <c r="Y31" s="68"/>
+      <c r="AC31" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AD31" s="71"/>
-      <c r="AG31" s="70" t="s">
+      <c r="AD31" s="68"/>
+      <c r="AG31" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="70"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -5558,7 +5575,7 @@
       </c>
       <c r="Y32" s="6">
         <f>ATAN2(AJ24,AJ25)</f>
-        <v>-7.6763687650916021E-18</v>
+        <v>-1.0235158353455473E-18</v>
       </c>
       <c r="AC32" s="8" t="s">
         <v>78</v>
@@ -5573,11 +5590,11 @@
       </c>
       <c r="AH32" s="6">
         <f>-SIN(AC6)*COS(K6)</f>
-        <v>4.702345665930384E-34</v>
+        <v>6.2697942212405134E-35</v>
       </c>
       <c r="AI32" s="6">
         <f>SIN(AC6)*SIN(K6)</f>
-        <v>7.6763687650916021E-18</v>
+        <v>1.0235158353455473E-18</v>
       </c>
       <c r="AJ32" s="6">
         <f>M6*COS(AC6)</f>
@@ -5639,7 +5656,7 @@
       </c>
       <c r="AG33" s="6">
         <f>SIN(AC6)</f>
-        <v>-7.6763687650916021E-18</v>
+        <v>-1.0235158353455473E-18</v>
       </c>
       <c r="AH33" s="6">
         <f>COS(AC6)*COS(K6)</f>
@@ -5651,7 +5668,7 @@
       </c>
       <c r="AJ33" s="6">
         <f>M6*SIN(AC6)</f>
-        <v>-1.8039466597965264E-16</v>
+        <v>-2.4052622130620362E-17</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
@@ -5760,10 +5777,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="23"/>
-      <c r="X35" s="71" t="s">
+      <c r="X35" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" s="71"/>
+      <c r="Y35" s="68"/>
       <c r="AC35" s="8" t="s">
         <v>89</v>
       </c>
@@ -5786,10 +5803,10 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="V36" s="23"/>
-      <c r="X36" s="70" t="s">
+      <c r="X36" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="Y36" s="70"/>
+      <c r="Y36" s="69"/>
       <c r="AC36" s="12" t="s">
         <v>81</v>
       </c>
@@ -5815,18 +5832,18 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="G38" s="71" t="s">
+      <c r="C38" s="68"/>
+      <c r="G38" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="71"/>
-      <c r="L38" s="71" t="s">
+      <c r="H38" s="68"/>
+      <c r="L38" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="71"/>
+      <c r="M38" s="68"/>
       <c r="V38" s="23"/>
       <c r="X38" s="6">
         <f>(AJ24*COS(-Y32))-AJ25*SIN(-Y32)</f>
@@ -5845,24 +5862,24 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="F39" s="70" t="s">
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="F39" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="K39" s="70" t="s">
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="K39" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
       <c r="V39" s="23"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
@@ -5949,18 +5966,18 @@
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="V41" s="23"/>
-      <c r="X41" s="71" t="s">
+      <c r="X41" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" s="71"/>
-      <c r="AC41" s="71" t="s">
+      <c r="Y41" s="68"/>
+      <c r="AC41" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AD41" s="71"/>
-      <c r="AH41" s="71" t="s">
+      <c r="AD41" s="68"/>
+      <c r="AH41" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="AI41" s="71"/>
+      <c r="AI41" s="68"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -6002,24 +6019,24 @@
         <v>841</v>
       </c>
       <c r="V42" s="23"/>
-      <c r="W42" s="70" t="s">
+      <c r="W42" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AB42" s="70" t="s">
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="69"/>
+      <c r="AB42" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="70"/>
-      <c r="AG42" s="70" t="s">
+      <c r="AC42" s="69"/>
+      <c r="AD42" s="69"/>
+      <c r="AE42" s="69"/>
+      <c r="AG42" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="69"/>
+      <c r="AJ42" s="69"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -6103,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="6">
-        <v>7.6763687650916021E-18</v>
+        <v>1.0235158353455473E-18</v>
       </c>
       <c r="AJ43" s="6">
         <v>23.500000000000039</v>
@@ -6149,13 +6166,13 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="AH44" s="6">
-        <v>-7.6763687650915991E-18</v>
+        <v>-1.0235158353455436E-18</v>
       </c>
       <c r="AI44" s="6">
         <v>1</v>
       </c>
       <c r="AJ44" s="6">
-        <v>-3.9997719450509805E-14</v>
+        <v>-3.9841377406660771E-14</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
@@ -6206,18 +6223,18 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="G46" s="71" t="s">
+      <c r="C46" s="68"/>
+      <c r="G46" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="L46" s="71" t="s">
+      <c r="H46" s="68"/>
+      <c r="L46" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="71"/>
+      <c r="M46" s="68"/>
       <c r="V46" s="23"/>
       <c r="W46" s="21">
         <v>0</v>
@@ -6259,179 +6276,179 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="F47" s="70" t="s">
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="F47" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="K47" s="70" t="s">
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="K47" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
       <c r="V47" s="23"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <f t="array" ref="A48:D51">MMULT(K40:N43,K24:N27)</f>
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="B48" s="6">
-        <v>-7.5049436828248946E-33</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="C48" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>1</v>
       </c>
       <c r="D48" s="6">
         <v>598.5</v>
       </c>
       <c r="F48" s="6">
         <f t="array" ref="F48:I51">MMULT(A48:D51,A32:D35)</f>
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="G48" s="6">
-        <v>-7.5049436828248946E-33</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="H48" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>1</v>
       </c>
       <c r="I48" s="6">
-        <v>598.5</v>
+        <v>663.5</v>
       </c>
       <c r="K48" s="6">
         <f t="array" ref="K48:N51">MMULT(F48:I51,F32:I35)</f>
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="L48" s="6">
-        <v>-7.5049436828248946E-33</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M48" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>1</v>
       </c>
       <c r="N48" s="6">
-        <v>598.5</v>
+        <v>663.5</v>
       </c>
       <c r="V48" s="23"/>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
       </c>
       <c r="C49" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="D49" s="6">
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="F49" s="6">
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="G49" s="6">
         <v>1</v>
       </c>
       <c r="H49" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="I49" s="6">
-        <v>3.369158250998705E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
       <c r="K49" s="6">
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="L49" s="6">
         <v>1</v>
       </c>
       <c r="M49" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="N49" s="6">
-        <v>3.369158250998705E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
       <c r="V49" s="23"/>
-      <c r="X49" s="71" t="s">
+      <c r="X49" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Y49" s="71"/>
-      <c r="AB49" s="71" t="s">
+      <c r="Y49" s="68"/>
+      <c r="AB49" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AG49" s="71" t="s">
+      <c r="AC49" s="68"/>
+      <c r="AD49" s="68"/>
+      <c r="AE49" s="68"/>
+      <c r="AG49" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="B50" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="C50" s="6">
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="D50" s="6">
         <v>841</v>
       </c>
       <c r="F50" s="6">
-        <v>-1.22514845490862E-16</v>
+        <v>-1</v>
       </c>
       <c r="G50" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="H50" s="6">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="I50" s="6">
+        <v>841</v>
+      </c>
+      <c r="K50" s="6">
         <v>-1</v>
       </c>
-      <c r="I50" s="6">
-        <v>776</v>
-      </c>
-      <c r="K50" s="6">
-        <v>-1.22514845490862E-16</v>
-      </c>
       <c r="L50" s="6">
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="M50" s="6">
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="N50" s="6">
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="V50" s="23"/>
-      <c r="W50" s="70" t="s">
+      <c r="W50" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70"/>
-      <c r="Z50" s="70"/>
-      <c r="AB50" s="70" t="s">
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="69"/>
+      <c r="AB50" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="70"/>
-      <c r="AE50" s="70"/>
-      <c r="AG50" s="70" t="s">
+      <c r="AC50" s="69"/>
+      <c r="AD50" s="69"/>
+      <c r="AE50" s="69"/>
+      <c r="AG50" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="AH50" s="70"/>
-      <c r="AI50" s="70"/>
-      <c r="AJ50" s="70"/>
+      <c r="AH50" s="69"/>
+      <c r="AI50" s="69"/>
+      <c r="AJ50" s="69"/>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -6476,7 +6493,7 @@
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="X51" s="6">
-        <v>-5.3581053980339398E-17</v>
+        <v>-6.0233906910085458E-17</v>
       </c>
       <c r="Y51" s="6">
         <v>1</v>
@@ -6503,13 +6520,13 @@
       <c r="AF51" s="17"/>
       <c r="AG51" s="6">
         <f t="array" ref="AG51:AI53">MMULT(AB51:AD53,W24:Y26)</f>
-        <v>6.1257422745431013E-17</v>
+        <v>1</v>
       </c>
       <c r="AH51" s="6">
-        <v>-6.1257422745430988E-17</v>
+        <v>1.7941883724125684E-17</v>
       </c>
       <c r="AI51" s="6">
-        <v>1</v>
+        <v>1.7941883724125678E-17</v>
       </c>
       <c r="AJ51" s="6" t="s">
         <v>52</v>
@@ -6524,15 +6541,15 @@
         <v>1</v>
       </c>
       <c r="Y52" s="6">
-        <v>5.3581053980339392E-17</v>
+        <v>6.0233906910085445E-17</v>
       </c>
       <c r="Z52" s="6">
-        <v>-3.9997719450509805E-14</v>
+        <v>-3.9841377406660771E-14</v>
       </c>
       <c r="AA52" s="17"/>
       <c r="AB52" s="6">
         <f>X51</f>
-        <v>-5.3581053980339398E-17</v>
+        <v>-6.0233906910085458E-17</v>
       </c>
       <c r="AC52" s="6">
         <f>X52</f>
@@ -6547,13 +6564,13 @@
       </c>
       <c r="AF52" s="17"/>
       <c r="AG52" s="6">
-        <v>1.7609589947120141E-16</v>
+        <v>-1.7941883724125684E-17</v>
       </c>
       <c r="AH52" s="6">
         <v>1</v>
       </c>
       <c r="AI52" s="6">
-        <v>6.1257422745430976E-17</v>
+        <v>-6.0233906910085458E-17</v>
       </c>
       <c r="AJ52" s="6" t="s">
         <v>52</v>
@@ -6580,7 +6597,7 @@
       </c>
       <c r="AC53" s="6">
         <f>Y52</f>
-        <v>5.3581053980339392E-17</v>
+        <v>6.0233906910085445E-17</v>
       </c>
       <c r="AD53" s="6">
         <f>Y53</f>
@@ -6591,13 +6608,13 @@
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="6">
-        <v>-1</v>
+        <v>-1.7941883724125678E-17</v>
       </c>
       <c r="AH53" s="6">
-        <v>1.7609589947120138E-16</v>
+        <v>6.0233906910085445E-17</v>
       </c>
       <c r="AI53" s="6">
-        <v>6.1257422745431025E-17</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="6" t="s">
         <v>52</v>
@@ -6649,191 +6666,191 @@
       <c r="AE55" s="18"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78"/>
-      <c r="W56" s="78"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="78"/>
-      <c r="AA56" s="78"/>
-      <c r="AB56" s="78"/>
-      <c r="AC56" s="78"/>
-      <c r="AD56" s="78"/>
-      <c r="AE56" s="78"/>
-      <c r="AF56" s="78"/>
-      <c r="AG56" s="78"/>
-      <c r="AH56" s="78"/>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="78"/>
-      <c r="AK56" s="78"/>
-      <c r="AL56" s="78"/>
-      <c r="AM56" s="78"/>
-      <c r="AN56" s="78"/>
-      <c r="AO56" s="78"/>
-      <c r="AP56" s="78"/>
-      <c r="AQ56" s="78"/>
-      <c r="AR56" s="78"/>
-      <c r="AS56" s="78"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="87"/>
+      <c r="Y56" s="87"/>
+      <c r="Z56" s="87"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="87"/>
+      <c r="AC56" s="87"/>
+      <c r="AD56" s="87"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="87"/>
+      <c r="AG56" s="87"/>
+      <c r="AH56" s="87"/>
+      <c r="AI56" s="87"/>
+      <c r="AJ56" s="87"/>
+      <c r="AK56" s="87"/>
+      <c r="AL56" s="87"/>
+      <c r="AM56" s="87"/>
+      <c r="AN56" s="87"/>
+      <c r="AO56" s="87"/>
+      <c r="AP56" s="87"/>
+      <c r="AQ56" s="87"/>
+      <c r="AR56" s="87"/>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57" spans="1:45" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
       <c r="V57" s="23"/>
-      <c r="W57" s="75" t="s">
+      <c r="W57" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="75"/>
-      <c r="Z57" s="75"/>
-      <c r="AA57" s="75"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="75"/>
-      <c r="AE57" s="75"/>
-      <c r="AF57" s="75"/>
-      <c r="AG57" s="75"/>
-      <c r="AH57" s="75"/>
-      <c r="AI57" s="75"/>
-      <c r="AJ57" s="75"/>
-      <c r="AK57" s="75"/>
-      <c r="AL57" s="75"/>
-      <c r="AM57" s="75"/>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="75"/>
-      <c r="AP57" s="75"/>
-      <c r="AQ57" s="75"/>
-      <c r="AR57" s="75"/>
-      <c r="AS57" s="75"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="80"/>
+      <c r="AI57" s="80"/>
+      <c r="AJ57" s="80"/>
+      <c r="AK57" s="80"/>
+      <c r="AL57" s="80"/>
+      <c r="AM57" s="80"/>
+      <c r="AN57" s="80"/>
+      <c r="AO57" s="80"/>
+      <c r="AP57" s="80"/>
+      <c r="AQ57" s="80"/>
+      <c r="AR57" s="80"/>
+      <c r="AS57" s="80"/>
     </row>
     <row r="58" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="86"/>
+      <c r="S58" s="86"/>
+      <c r="T58" s="86"/>
+      <c r="U58" s="86"/>
       <c r="V58" s="23"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
-      <c r="AK58" s="68"/>
-      <c r="AL58" s="68"/>
-      <c r="AM58" s="68"/>
-      <c r="AN58" s="68"/>
-      <c r="AO58" s="68"/>
-      <c r="AP58" s="68"/>
-      <c r="AQ58" s="68"/>
-      <c r="AR58" s="68"/>
-      <c r="AS58" s="68"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="89"/>
+      <c r="AB58" s="89"/>
+      <c r="AC58" s="89"/>
+      <c r="AD58" s="89"/>
+      <c r="AE58" s="89"/>
+      <c r="AF58" s="89"/>
+      <c r="AG58" s="89"/>
+      <c r="AH58" s="89"/>
+      <c r="AI58" s="89"/>
+      <c r="AJ58" s="89"/>
+      <c r="AK58" s="89"/>
+      <c r="AL58" s="89"/>
+      <c r="AM58" s="89"/>
+      <c r="AN58" s="89"/>
+      <c r="AO58" s="89"/>
+      <c r="AP58" s="89"/>
+      <c r="AQ58" s="89"/>
+      <c r="AR58" s="89"/>
+      <c r="AS58" s="89"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="F59" s="61" t="s">
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="F59" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="K59" s="45" t="s">
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="K59" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
       <c r="V59" s="23"/>
-      <c r="W59" s="61" t="s">
+      <c r="W59" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="AA59" s="61" t="s">
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="AA59" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="AB59" s="61"/>
+      <c r="AB59" s="63"/>
     </row>
     <row r="60" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="83" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" ref="B60:B62" si="4">M32</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="66" t="s">
+        <f t="shared" ref="B60:B62" si="5">M32</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="83" t="s">
         <v>111</v>
       </c>
       <c r="D60" s="6">
@@ -6854,144 +6871,144 @@
       </c>
       <c r="K60" s="6">
         <f>H61</f>
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="L60" s="6">
         <f>H64</f>
-        <v>-65</v>
+        <v>-2.4015819785039663E-30</v>
       </c>
       <c r="M60" s="6">
         <f>H67</f>
-        <v>-3.9817324784530174E-15</v>
+        <v>-2.4015819785039663E-30</v>
       </c>
       <c r="N60" s="25">
         <f>H70</f>
-        <v>-65</v>
+        <v>-2.4391066969180907E-31</v>
       </c>
       <c r="O60" s="6">
         <f>H73</f>
-        <v>0</v>
+        <v>-2.4391066969180907E-31</v>
       </c>
       <c r="P60" s="6">
         <f>H76</f>
         <v>0</v>
       </c>
       <c r="V60" s="23"/>
-      <c r="W60" s="65" t="s">
+      <c r="W60" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="X60" s="66" t="s">
+      <c r="X60" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="Y60" s="66" t="s">
+      <c r="Y60" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="AA60" s="65" t="s">
+      <c r="AA60" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AB60" s="69" t="s">
+      <c r="AB60" s="90" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C61" s="72"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="84"/>
       <c r="D61" s="6">
         <f>M41</f>
         <v>1</v>
       </c>
-      <c r="F61" s="66" t="s">
+      <c r="F61" s="83" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6">
         <f>N48-B72</f>
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="H61" s="25">
         <f>B61*G63-B62*G62</f>
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="I61" s="25">
-        <f t="shared" ref="I61:I69" si="5">B60</f>
+        <f t="shared" ref="I61:I69" si="6">B60</f>
         <v>0</v>
       </c>
       <c r="K61" s="6">
         <f>H62</f>
-        <v>3.5223018078622825E-14</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
       </c>
       <c r="M61" s="6">
         <f>H68</f>
-        <v>65.000000000000028</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="N61" s="25">
         <f>H71</f>
-        <v>0</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="O61" s="6">
         <f>H74</f>
-        <v>7.9634649569060301E-15</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="P61" s="6">
         <f>H77</f>
         <v>0</v>
       </c>
       <c r="V61" s="23"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="AA61" s="65"/>
-      <c r="AB61" s="65"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A62" s="73"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C62" s="73"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="6">
         <f>M42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="F62" s="72"/>
+      <c r="F62" s="84"/>
       <c r="G62" s="6">
         <f>N49-B73</f>
-        <v>3.369158250998705E-15</v>
+        <v>-6.1257422745431001E-16</v>
       </c>
       <c r="H62" s="6">
         <f>B62*G61-B60*G63</f>
-        <v>3.5223018078622825E-14</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K62" s="6">
         <f>H63</f>
-        <v>-575</v>
+        <v>-640</v>
       </c>
       <c r="L62" s="6">
         <f>H66</f>
-        <v>-575</v>
+        <v>-640</v>
       </c>
       <c r="M62" s="6">
         <f>H69</f>
-        <v>7.9634649569060301E-15</v>
+        <v>0</v>
       </c>
       <c r="N62" s="25">
         <f>H72</f>
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="O62" s="6">
         <f>H75</f>
-        <v>9.756426787672363E-31</v>
+        <v>0</v>
       </c>
       <c r="P62" s="6">
         <f>H78</f>
@@ -7011,36 +7028,36 @@
         <v>3</v>
       </c>
       <c r="AB62" s="3" t="str">
-        <f t="shared" ref="AB62:AB67" si="6">IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
+        <f t="shared" ref="AB62:AB67" si="7">IF(OR(AB6&gt;Y62, AB6&lt;X62), "L", "N")</f>
         <v>N</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="6">
         <f>C40</f>
         <v>0</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="83" t="s">
         <v>112</v>
       </c>
       <c r="D63" s="6">
         <f>C48</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="F63" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="85"/>
       <c r="G63" s="6">
         <f>N50-B74</f>
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="H63" s="6">
         <f>B60*G62-B61*G61</f>
-        <v>-575</v>
+        <v>-640</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K63" s="6">
@@ -7061,11 +7078,11 @@
       </c>
       <c r="O63" s="6">
         <f>I73</f>
-        <v>1.22514845490862E-16</v>
+        <v>1</v>
       </c>
       <c r="P63" s="6">
         <f>I76</f>
-        <v>1.22514845490862E-16</v>
+        <v>1</v>
       </c>
       <c r="V63" s="23"/>
       <c r="W63" s="8" t="s">
@@ -7081,34 +7098,34 @@
         <v>4</v>
       </c>
       <c r="AB63" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
     <row r="64" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="72"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="6">
         <f>C41</f>
         <v>1</v>
       </c>
-      <c r="C64" s="72"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="6">
         <f>C49</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="F64" s="66" t="s">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F64" s="83" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="6">
         <f>N48-B75</f>
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="H64" s="25">
         <f>B64*G66-B65*G65</f>
-        <v>-65</v>
+        <v>-2.4015819785039663E-30</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
@@ -7129,11 +7146,11 @@
       </c>
       <c r="O64" s="6">
         <f>I74</f>
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P64" s="6">
         <f>I77</f>
-        <v>1.22514845490862E-16</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="V64" s="23"/>
       <c r="W64" s="8" t="s">
@@ -7149,32 +7166,32 @@
         <v>5</v>
       </c>
       <c r="AB64" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A65" s="73"/>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A65" s="85"/>
       <c r="B65" s="6">
         <f>C42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C65" s="73"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="6">
         <f>C50</f>
-        <v>-1</v>
-      </c>
-      <c r="F65" s="72"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F65" s="84"/>
       <c r="G65" s="6">
         <f>N49-B76</f>
-        <v>4.3186483035528855E-14</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="H65" s="6">
         <f>B65*G64-B63*G66</f>
-        <v>3.5223018078622825E-14</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K65" s="6">
@@ -7195,11 +7212,11 @@
       </c>
       <c r="O65" s="6">
         <f>I75</f>
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P65" s="6">
         <f>I78</f>
-        <v>-1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="V65" s="23"/>
       <c r="W65" s="8" t="s">
@@ -7215,36 +7232,36 @@
         <v>6</v>
       </c>
       <c r="AB65" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="66" t="s">
+    <row r="66" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="6">
         <f>H40</f>
         <v>1</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D66" s="6">
         <f>H48</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="F66" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="85"/>
       <c r="G66" s="6">
         <f>N50-B77</f>
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="H66" s="6">
         <f>B63*G65-B64*G64</f>
-        <v>-575</v>
+        <v>-640</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V66" s="23"/>
@@ -7261,34 +7278,34 @@
         <v>7</v>
       </c>
       <c r="AB66" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
+    <row r="67" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="84"/>
       <c r="B67" s="6">
         <f>H41</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C67" s="72"/>
+      <c r="C67" s="84"/>
       <c r="D67" s="6">
         <f>H49</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="F67" s="66" t="s">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F67" s="83" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="6">
         <f>N48-B78</f>
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="H67" s="25">
         <f>B67*G69-B68*G68</f>
-        <v>-3.9817324784530174E-15</v>
+        <v>-2.4015819785039663E-30</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V67" s="23"/>
@@ -7305,176 +7322,181 @@
         <v>8</v>
       </c>
       <c r="AB67" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A68" s="85"/>
       <c r="B68" s="6">
         <f>H42</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C68" s="73"/>
+      <c r="C68" s="85"/>
       <c r="D68" s="6">
         <f>H50</f>
-        <v>-1</v>
-      </c>
-      <c r="F68" s="72"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F68" s="84"/>
       <c r="G68" s="6">
         <f>N49-B79</f>
-        <v>4.3186483035528855E-14</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="H68" s="6">
         <f>B68*G67-B66*G69</f>
-        <v>65.000000000000028</v>
+        <v>3.920475055707584E-14</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M68" s="45" t="s">
+      <c r="M68" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="N68" s="45"/>
+      <c r="N68" s="48"/>
       <c r="V68" s="23"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F69" s="73"/>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F69" s="85"/>
       <c r="G69" s="6">
         <f>N50-B80</f>
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
         <f>B66*G68-B67*G67</f>
-        <v>7.9634649569060301E-15</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="M69" s="27" t="str">
         <f>IF(N69=0, "S", "N")</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="N69" s="16">
         <f>MDETERM(K60:P65)</f>
-        <v>-2.9763450276436287E-9</v>
+        <v>0</v>
       </c>
       <c r="V69" s="23"/>
     </row>
-    <row r="70" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="66" t="s">
+    <row r="70" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="83" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="6">
         <f>N48-D72</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H70" s="25">
         <f>D61*G72-D62*G71</f>
-        <v>-65</v>
+        <v>-2.4391066969180907E-31</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" ref="I70:I78" si="7">D60</f>
+        <f t="shared" ref="I70:I78" si="8">D60</f>
         <v>0</v>
       </c>
       <c r="V70" s="23"/>
-      <c r="W70" s="45" t="s">
+      <c r="W70" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="F71" s="72"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="F71" s="84"/>
       <c r="G71" s="6">
         <f>N49-D73</f>
-        <v>7.9634649569060301E-15</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="H71" s="6">
         <f>D62*G70-D60*G72</f>
-        <v>0</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V71" s="23"/>
-      <c r="W71" s="65" t="s">
+      <c r="W71" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="X71" s="65" t="s">
+      <c r="X71" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="Y71" s="65" t="s">
+      <c r="Y71" s="75" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A72" s="66" t="s">
+    <row r="72" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="83" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" ref="B72:B74" si="8">N32</f>
+        <f t="shared" ref="B72:B74" si="9">N32</f>
         <v>23.5</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="83" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" ref="D72:D74" si="9">N40</f>
+        <f t="shared" ref="D72:D74" si="10">N40</f>
         <v>598.5</v>
       </c>
-      <c r="F72" s="73"/>
+      <c r="F72" s="85"/>
       <c r="G72" s="6">
         <f>N50-D74</f>
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="H72" s="6">
         <f>D60*G71-D61*G70</f>
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="V72" s="23"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-    </row>
-    <row r="73" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="72"/>
+      <c r="W72" s="75"/>
+      <c r="X72" s="75"/>
+      <c r="Y72" s="75"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="47"/>
+    </row>
+    <row r="73" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="84"/>
       <c r="B73" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="72"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="84"/>
       <c r="D73" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F73" s="66" t="s">
+      <c r="F73" s="83" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="6">
         <f>N48-D75</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H73" s="25">
         <f>D64*G75-D65*G74</f>
-        <v>0</v>
+        <v>-2.4391066969180907E-31</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="7"/>
-        <v>1.22514845490862E-16</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="V73" s="23"/>
       <c r="W73" s="8" t="s">
@@ -7486,30 +7508,35 @@
       <c r="Y73" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="47"/>
+      <c r="AG73" s="47"/>
+      <c r="AH73" s="47"/>
+      <c r="AI73" s="47"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A74" s="85"/>
       <c r="B74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
-      <c r="C74" s="73"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="F74" s="72"/>
+      <c r="F74" s="84"/>
       <c r="G74" s="6">
         <f>N49-D76</f>
-        <v>7.9634649569060301E-15</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="H74" s="6">
         <f>D65*G73-D63*G75</f>
-        <v>7.9634649569060301E-15</v>
+        <v>3.981732478453015E-15</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="7"/>
-        <v>1.22514845490862E-16</v>
+        <f t="shared" si="8"/>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="O74"/>
       <c r="V74" s="23"/>
@@ -7522,34 +7549,39 @@
       <c r="Y74" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A75" s="66" t="s">
+      <c r="AE74" s="45"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A75" s="83" t="s">
         <v>109</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" ref="B75:B77" si="10">D40</f>
+        <f t="shared" ref="B75:B77" si="11">D40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="83" t="s">
         <v>112</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" ref="D75:D77" si="11">D48</f>
+        <f t="shared" ref="D75:D77" si="12">D48</f>
         <v>598.5</v>
       </c>
-      <c r="F75" s="73"/>
+      <c r="F75" s="85"/>
       <c r="G75" s="6">
         <f>N50-D77</f>
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="H75" s="6">
         <f>D63*G74-D64*G73</f>
-        <v>9.756426787672363E-31</v>
+        <v>0</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="V75" s="23"/>
       <c r="W75" s="8" t="s">
@@ -7561,19 +7593,24 @@
       <c r="Y75" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="72"/>
+      <c r="AE75" s="45"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
+    </row>
+    <row r="76" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="84"/>
       <c r="B76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C76" s="72"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.594306705907325E-15</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="83" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="6">
@@ -7585,8 +7622,8 @@
         <v>0</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="7"/>
-        <v>1.22514845490862E-16</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="23"/>
@@ -7599,19 +7636,24 @@
       <c r="Y76" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A77" s="73"/>
+      <c r="AE76" s="45"/>
+      <c r="AF76" s="17"/>
+      <c r="AG76" s="17"/>
+      <c r="AH76" s="17"/>
+      <c r="AI76" s="17"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A77" s="85"/>
       <c r="B77" s="6">
-        <f t="shared" si="10"/>
-        <v>841</v>
-      </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="6">
         <f t="shared" si="11"/>
         <v>841</v>
       </c>
-      <c r="F77" s="72"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="6">
+        <f t="shared" si="12"/>
+        <v>841</v>
+      </c>
+      <c r="F77" s="84"/>
       <c r="G77" s="6">
         <f>N49-D79</f>
         <v>0</v>
@@ -7621,8 +7663,8 @@
         <v>0</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="7"/>
-        <v>1.22514845490862E-16</v>
+        <f t="shared" si="8"/>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="V77" s="23"/>
       <c r="W77" s="8" t="s">
@@ -7634,23 +7676,28 @@
       <c r="Y77" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A78" s="66" t="s">
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="17"/>
+      <c r="AG77" s="17"/>
+      <c r="AH77" s="17"/>
+      <c r="AI77" s="17"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A78" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" ref="B78:B80" si="12">I40</f>
+        <f t="shared" ref="B78:B80" si="13">I40</f>
         <v>23.500000000000039</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" ref="D78:D80" si="13">I48</f>
-        <v>598.5</v>
-      </c>
-      <c r="F78" s="73"/>
+        <f t="shared" ref="D78:D80" si="14">I48</f>
+        <v>663.5</v>
+      </c>
+      <c r="F78" s="85"/>
       <c r="G78" s="6">
         <f>N50-D80</f>
         <v>0</v>
@@ -7660,8 +7707,8 @@
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="V78" s="23"/>
       <c r="W78" s="8" t="s">
@@ -7673,30 +7720,40 @@
       <c r="Y78" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A79" s="72"/>
+      <c r="AE78" s="45"/>
+      <c r="AF78" s="17"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A79" s="84"/>
       <c r="B79" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.981732478453015E-14</v>
       </c>
-      <c r="C79" s="72"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="6">
+        <f t="shared" si="14"/>
+        <v>-6.1257422745431001E-16</v>
+      </c>
+      <c r="V79" s="23"/>
+      <c r="AE79" s="45"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A80" s="85"/>
+      <c r="B80" s="6">
         <f t="shared" si="13"/>
-        <v>3.369158250998705E-15</v>
-      </c>
-      <c r="V79" s="23"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A80" s="73"/>
-      <c r="B80" s="6">
-        <f t="shared" si="12"/>
         <v>841</v>
       </c>
-      <c r="C80" s="73"/>
+      <c r="C80" s="85"/>
       <c r="D80" s="6">
-        <f t="shared" si="13"/>
-        <v>776</v>
+        <f t="shared" si="14"/>
+        <v>841</v>
       </c>
       <c r="V80" s="23"/>
     </row>
@@ -7711,51 +7768,66 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="Y71:Y72"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W58:AS58"/>
+    <mergeCell ref="AA60:AA61"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="K59:P59"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="W2:AS2"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="W57:AS57"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A56:AS56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="W1:AS1"/>
     <mergeCell ref="AG42:AJ42"/>
     <mergeCell ref="W50:Z50"/>
@@ -7780,66 +7852,51 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="W2:AS2"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="W57:AS57"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A56:AS56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="K59:P59"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="Y71:Y72"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W58:AS58"/>
-    <mergeCell ref="AA60:AA61"/>
-    <mergeCell ref="AB60:AB61"/>
-    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="X14:Y14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7854,7 +7911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A61F0-470D-4457-BD64-2433520B0408}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -7867,68 +7924,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="93" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="94" t="s">
         <v>191</v>
       </c>
       <c r="M2" s="44"/>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="R2" s="91" t="s">
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="R2" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="27" t="s">
         <v>187</v>
       </c>
@@ -7956,8 +8013,8 @@
       <c r="J3" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="91"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="44"/>
       <c r="N3" s="38" t="s">
         <v>195</v>
@@ -7982,34 +8039,34 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="100">
         <v>853.5</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="100">
         <v>215.5</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="100">
         <v>481.9</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="100">
         <v>853.5</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="100">
         <v>215.5</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="100">
         <f>D4-15</f>
         <v>466.9</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="100">
         <f>B4-E4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="100">
         <f>C4-F4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="88">
+      <c r="J4" s="100">
         <f>D4-G4</f>
         <v>15</v>
       </c>
@@ -8025,11 +8082,11 @@
         <f t="shared" ref="N4:N13" si="0">POWER(L4, 2)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="91">
         <f>SUM(L4:L13)/10</f>
         <v>0.16600000000000001</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="91">
         <f>SUM(N4:N13)/10</f>
         <v>0.12434000000000001</v>
       </c>
@@ -8041,7 +8098,7 @@
         <f>R4^2</f>
         <v>3.4596000000000002E-2</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="50">
         <f>SQRT(SUM(S4:S13)/10)</f>
         <v>0.31110126968561219</v>
       </c>
@@ -8053,15 +8110,15 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="15">
         <v>-0.26</v>
       </c>
@@ -8074,8 +8131,8 @@
         <f t="shared" si="0"/>
         <v>6.7600000000000007E-2</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
       <c r="R5" s="15">
         <f>L5-O4</f>
         <v>9.4E-2</v>
@@ -8084,21 +8141,21 @@
         <f t="shared" ref="S5:S13" si="1">R5^2</f>
         <v>8.8360000000000001E-3</v>
       </c>
-      <c r="T5" s="48"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="15">
         <v>-0.46</v>
       </c>
@@ -8111,8 +8168,8 @@
         <f t="shared" si="0"/>
         <v>0.21160000000000001</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
       <c r="R6" s="15">
         <f>L6-O4</f>
         <v>0.29400000000000004</v>
@@ -8121,21 +8178,21 @@
         <f t="shared" si="1"/>
         <v>8.6436000000000027E-2</v>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="51"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="15">
         <v>-0.47</v>
       </c>
@@ -8148,8 +8205,8 @@
         <f t="shared" si="0"/>
         <v>0.22089999999999999</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
       <c r="R7" s="15">
         <f>L7-O4</f>
         <v>0.30399999999999994</v>
@@ -8158,21 +8215,21 @@
         <f t="shared" si="1"/>
         <v>9.2415999999999957E-2</v>
       </c>
-      <c r="T7" s="48"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="15">
         <v>-0.42</v>
       </c>
@@ -8185,8 +8242,8 @@
         <f t="shared" si="0"/>
         <v>0.17639999999999997</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
       <c r="R8" s="15">
         <f>L8-O4</f>
         <v>0.254</v>
@@ -8195,21 +8252,21 @@
         <f t="shared" si="1"/>
         <v>6.4516000000000004E-2</v>
       </c>
-      <c r="T8" s="48"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="15">
         <v>-0.51</v>
       </c>
@@ -8222,8 +8279,8 @@
         <f t="shared" si="0"/>
         <v>0.2601</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
       <c r="R9" s="15">
         <f>L9-O4</f>
         <v>0.34399999999999997</v>
@@ -8232,21 +8289,21 @@
         <f t="shared" si="1"/>
         <v>0.11833599999999998</v>
       </c>
-      <c r="T9" s="48"/>
+      <c r="T9" s="51"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="15">
         <v>-0.2</v>
       </c>
@@ -8259,8 +8316,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
       <c r="R10" s="15">
         <f>L10-O4</f>
         <v>3.4000000000000002E-2</v>
@@ -8269,21 +8326,21 @@
         <f t="shared" si="1"/>
         <v>1.1560000000000001E-3</v>
       </c>
-      <c r="T10" s="48"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="15">
         <v>-0.08</v>
       </c>
@@ -8296,8 +8353,8 @@
         <f t="shared" si="0"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
       <c r="R11" s="15">
         <f>L11-O4</f>
         <v>-8.6000000000000007E-2</v>
@@ -8306,21 +8363,21 @@
         <f t="shared" si="1"/>
         <v>7.3960000000000015E-3</v>
       </c>
-      <c r="T11" s="48"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
       <c r="K12" s="15">
         <v>0.34</v>
       </c>
@@ -8333,8 +8390,8 @@
         <f t="shared" si="0"/>
         <v>0.11560000000000002</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
       <c r="R12" s="15">
         <f>L12-O4</f>
         <v>-0.50600000000000001</v>
@@ -8343,21 +8400,21 @@
         <f t="shared" si="1"/>
         <v>0.25603599999999999</v>
       </c>
-      <c r="T12" s="48"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="15">
         <v>0.38</v>
       </c>
@@ -8370,8 +8427,8 @@
         <f t="shared" si="0"/>
         <v>0.1444</v>
       </c>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
       <c r="R13" s="15">
         <f>L13-O4</f>
         <v>-0.54600000000000004</v>
@@ -8380,71 +8437,71 @@
         <f t="shared" si="1"/>
         <v>0.29811600000000005</v>
       </c>
-      <c r="T13" s="49"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91" t="s">
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="93" t="s">
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="94" t="s">
         <v>191</v>
       </c>
       <c r="M17" s="43"/>
-      <c r="N17" s="100" t="s">
+      <c r="N17" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="R17" s="91" t="s">
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="R17" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="27" t="s">
         <v>187</v>
       </c>
@@ -8472,8 +8529,8 @@
       <c r="J18" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="91"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="94"/>
       <c r="M18" s="42"/>
       <c r="N18" s="38" t="s">
         <v>195</v>
@@ -8498,33 +8555,33 @@
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="88">
-        <v>0</v>
-      </c>
-      <c r="C19" s="88">
-        <v>0</v>
-      </c>
-      <c r="D19" s="88">
-        <v>0</v>
-      </c>
-      <c r="E19" s="88">
-        <v>0</v>
-      </c>
-      <c r="F19" s="88">
-        <v>0</v>
-      </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
-      <c r="H19" s="88">
+      <c r="B19" s="100">
+        <v>0</v>
+      </c>
+      <c r="C19" s="100">
+        <v>0</v>
+      </c>
+      <c r="D19" s="100">
+        <v>0</v>
+      </c>
+      <c r="E19" s="100">
+        <v>0</v>
+      </c>
+      <c r="F19" s="100">
+        <v>0</v>
+      </c>
+      <c r="G19" s="100">
+        <v>0</v>
+      </c>
+      <c r="H19" s="100">
         <f>B19-E19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="100">
         <f>C19-F19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="100">
         <f>D19-G19</f>
         <v>0</v>
       </c>
@@ -8540,11 +8597,11 @@
         <f t="shared" ref="N19:N28" si="3">POWER(L19, 2)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="95">
+      <c r="O19" s="91">
         <f>SUM(L19:L28)/10</f>
         <v>0</v>
       </c>
-      <c r="P19" s="95">
+      <c r="P19" s="91">
         <f>SUM(N19:N28)/10</f>
         <v>0</v>
       </c>
@@ -8556,7 +8613,7 @@
         <f>R19^2</f>
         <v>0</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="50">
         <f>SQRT(SUM(S19:S28)/10)</f>
         <v>0</v>
       </c>
@@ -8565,15 +8622,15 @@
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="15">
         <v>0</v>
       </c>
@@ -8586,8 +8643,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
       <c r="R20" s="15">
         <f>L20-O19</f>
         <v>0</v>
@@ -8596,21 +8653,21 @@
         <f t="shared" ref="S20:S28" si="5">R20^2</f>
         <v>0</v>
       </c>
-      <c r="T20" s="48"/>
+      <c r="T20" s="51"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
       <c r="K21" s="15">
         <v>0</v>
       </c>
@@ -8623,8 +8680,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
       <c r="R21" s="15">
         <f>L21-O19</f>
         <v>0</v>
@@ -8633,21 +8690,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="48"/>
+      <c r="T21" s="51"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
       <c r="K22" s="15">
         <v>0</v>
       </c>
@@ -8660,8 +8717,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
       <c r="R22" s="15">
         <f>L22-O19</f>
         <v>0</v>
@@ -8670,21 +8727,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="48"/>
+      <c r="T22" s="51"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="15">
         <v>0</v>
       </c>
@@ -8697,8 +8754,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
       <c r="R23" s="15">
         <f>L23-O19</f>
         <v>0</v>
@@ -8707,21 +8764,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="48"/>
+      <c r="T23" s="51"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
       <c r="K24" s="15">
         <v>0</v>
       </c>
@@ -8734,8 +8791,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
       <c r="R24" s="15">
         <f>L24-O19</f>
         <v>0</v>
@@ -8744,21 +8801,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T24" s="48"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
       <c r="K25" s="15">
         <v>0</v>
       </c>
@@ -8771,8 +8828,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
       <c r="R25" s="15">
         <f>L25-O19</f>
         <v>0</v>
@@ -8781,21 +8838,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T25" s="48"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
       <c r="K26" s="15">
         <v>0</v>
       </c>
@@ -8808,8 +8865,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
       <c r="R26" s="15">
         <f>L26-O19</f>
         <v>0</v>
@@ -8818,21 +8875,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T26" s="48"/>
+      <c r="T26" s="51"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
       <c r="K27" s="15">
         <v>0</v>
       </c>
@@ -8845,8 +8902,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
       <c r="R27" s="15">
         <f>L27-O19</f>
         <v>0</v>
@@ -8855,21 +8912,21 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T27" s="48"/>
+      <c r="T27" s="51"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="15">
         <v>0</v>
       </c>
@@ -8882,8 +8939,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
       <c r="R28" s="15">
         <f>L28-O19</f>
         <v>0</v>
@@ -8892,10 +8949,36 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T28" s="49"/>
+      <c r="T28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="J4:J13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="G19:G28"/>
     <mergeCell ref="P19:P28"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="T19:T28"/>
@@ -8912,32 +8995,6 @@
     <mergeCell ref="O4:O13"/>
     <mergeCell ref="O19:O28"/>
     <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H4:H13"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="J4:J13"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
